--- a/artifacts/recipes/new_data/allrecipescom/vegan/vegan_side-dishes.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/vegan/vegan_side-dishes.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -83,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -117,80 +490,48 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699656346-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Vegan Side Dishes</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699656349-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/-pUjNLVvss77gOBPcjF5pxfq0qE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2518563-f4078ef80fd04ca4bdfcb28d5241d94d.jpg"
@@ -203,59 +544,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/13996/moms-cucumbers/</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Mom's Cucumbers</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Servings:\n5 \n\n\nYield:\n4 to 6 side salad servings"}]</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 large cucumbers\n\n\n1 teaspoon salt\n\n\n¼ cup white sugar\n\n\n⅛ cup water\n\n\n¼ cup distilled white vinegar\n\n\n½ teaspoon celery seed\n\n\n¼ cup chopped onion"}]</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 large cucumbers\n\n\n1 teaspoon salt\n\n\n¼ cup white sugar\n\n\n⅛ cup water\n\n\n¼ cup distilled white vinegar\n\n\n½ teaspoon celery seed\n\n\n¼ cup chopped onion'}]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Peel the cucumbers and slice wafer thin. Sprinkle with salt. Let stand 30 minutes, then squeeze cucumbers to release moisture."},{"recipe_directions":"In a medium size bowl mix sugar, water, vinegar, celery seed, and onion. Add cucumbers to mixture. Mix well. Refrigerate 1 hour."}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Cucumber Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"68\nCalories\n\n\n0g \nFat\n\n\n17g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699656352-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/vCbL4R77J4C3oIF4CTViI_8Yxws=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/105341-9175f6f872c045d1af7861dfbfc0620d.jpg"
@@ -268,59 +605,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14157/tomato-cucumber-salad/</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Tomato Cucumber Salad</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  tomatoes, chopped\n\n\n1  cucumber, peeled and diced\n\n\n1  onion, chopped\n\n\n1 tablespoon lemon juice\n\n\nsalt and ground black peper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  tomatoes, chopped\n\n\n1  cucumber, peeled and diced\n\n\n1  onion, chopped\n\n\n1 tablespoon lemon juice\n\n\nsalt and ground black peper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine tomatoes, cucumber, and onion in a salad bowl. Sprinkle with lemon juice; season with salt and black pepper. Mix until well combined. Place in the refrigerator to chill before serving."}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Tomato Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"46\nCalories\n\n\n0g \nFat\n\n\n10g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699656355-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Re9_uTtmmjc4MolFrtULM_YIkeY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(921x0:923x2):format(webp)/4523461-5ba0ee1b47244ad593372e984b104a4f.jpg"
@@ -333,59 +666,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14050/cucumber-sunomono/</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Sunomono (Japanese Cucumber Salad)</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n5"}]</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 large  cucumbers, peeled\n\n\n⅓ cup rice vinegar\n\n\n4 teaspoons white sugar\n\n\n1 ½ teaspoons minced fresh ginger root\n\n\n1 teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 large  cucumbers, peeled\n\n\n⅓ cup rice vinegar\n\n\n4 teaspoons white sugar\n\n\n1 ½ teaspoons minced fresh ginger root\n\n\n1 teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cut cucumbers in half lengthwise and scoop out any large seeds. Slice crosswise into very thin slices."},{"recipe_directions":"Place vinegar, sugar, ginger, and salt in a small bowl; mix well to combine. Add cucumber slices and stir to coat. Refrigerate for at least 1 hour before serving."}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Cucumber Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"27\nCalories\n\n\n0g \nFat\n\n\n6g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699656358-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/s0QiG9L2xcWGx_G67pK6X0_1XmU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/7651487-8ac0112a73ac49bab7c2b3bd83193341.jpg"
@@ -398,59 +727,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/278396/indian-fried-cabbage/</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Indian Fried Cabbage</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon coconut oil\n\n\n1 cup sliced red onion\n\n\n1 large clove garlic, minced\n\n\n½ teaspoon cumin seeds\n\n\n½ head green cabbage, thinly sliced\n\n\n1 teaspoon salt\n\n\n1 teaspoon curry powder\n\n\n½ teaspoon garam masala"}]</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon coconut oil\n\n\n1 cup sliced red onion\n\n\n1 large clove garlic, minced\n\n\n½ teaspoon cumin seeds\n\n\n½ head green cabbage, thinly sliced\n\n\n1 teaspoon salt\n\n\n1 teaspoon curry powder\n\n\n½ teaspoon garam masala'}]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat coconut oil over medium-high heat in a large nonstick pan or wok. Add red onion and sauté for 1 minute. Stir in garlic and cumin seeds; cook and stir for 1 minute."},{"recipe_directions":"Add cabbage and toss until coated with oil. Season with salt, curry powder, and garam masala. Cook and stir until cabbage is tender, about 5 minutes."}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Cabbage"}]</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"96\nCalories\n\n\n4g \nFat\n\n\n15g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699656361-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Z82GJaePHzQVPt37GFUxa9y-VV8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(562x0:564x2):format(webp)/9058420-522c264cec33422cb696afdebb696806.jpg"
@@ -463,59 +788,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/277795/dairy-free-scalloped-potatoes/</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Dairy-Free Scalloped Potatoes</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 30 mins\n\n\nServings:\n16 \n\n\nYield:\n2 9x13-inch baking dishes"}]</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"cooking spray\n\n\n12  potatoes, peeled and thinly sliced\n\n\n2  onions, thinly sliced\n\n\n  salt and ground black pepper to taste\n\n\n⅓ cup non-dairy butter\n\n\n⅓ cup all-purpose flour\n\n\n3 cups vegetable broth\n\n\n1 pinch paprika, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n12  potatoes, peeled and thinly sliced\n\n\n2  onions, thinly sliced\n\n\n  salt and ground black pepper to taste\n\n\n⅓ cup non-dairy butter\n\n\n⅓ cup all-purpose flour\n\n\n3 cups vegetable broth\n\n\n1 pinch paprika, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Spray two 9x13-inch baking dishes with nonstick cooking spray."},{"recipe_directions":"Layer potatoes and onions in the prepared baking dishes, seasoning each layer with salt and pepper."},{"recipe_directions":"Melt non-dairy butter in a medium saucepan over medium heat. Stir in flour until blended. Whisk in vegetable broth, stirring constantly, until sauce boils and thickens. Pour sauce over the potatoes and onions; sprinkle paprika over the top."},{"recipe_directions":"Bake in the preheated oven until potatoes are tender and golden brown, about 50 minutes."}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Scalloped Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"184\nCalories\n\n\n4g \nFat\n\n\n34g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699656364-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/6_rXqqkvceGeKN0uHrPE0si8Dxs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/6778924-grilled-sweet-potato-wedges-France-C-4x3-1-90ad14c8892441b8b8dd898fd9a8edb9.jpg"
@@ -529,59 +850,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/274391/grilled-sweet-potato-wedges/</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Grilled Sweet Potato Wedges</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  medium sweet potatoes\n\n\n¼ cup olive oil, divided\n\n\n½ teaspoon smoked paprika\n\n\n½ teaspoon salt\n\n\n⅛ teaspoon garlic powder\n\n\n⅛ teaspoon ground cinnamon\n\n\n⅛ teaspoon cayenne pepper"}]</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  medium sweet potatoes\n\n\n¼ cup olive oil, divided\n\n\n½ teaspoon smoked paprika\n\n\n½ teaspoon salt\n\n\n⅛ teaspoon garlic powder\n\n\n⅛ teaspoon ground cinnamon\n\n\n⅛ teaspoon cayenne pepper'}]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an outdoor grill for medium heat and lightly oil the grate."},{"recipe_directions":"Scrub sweet potatoes thoroughly under cold running water. Cut each potato lengthwise into 8 wedges. Place wedges in a bowl and toss with 2 tablespoons of oil. Combine remaining olive oil, paprika, salt, garlic powder, cinnamon, and cayenne in a separate small bowl."},{"recipe_directions":"Place wedges on the grill perpendicular to the grates and reduce heat to low. Grill over low heat, turning occasionally, until potatoes are soft, 16 to 18 minutes. Brush wedges with oil mixture on both sides, and grill 1 to 2 minutes more, then transfer to a plate."},{"recipe_directions":"Two medium-sized sweet potatoes are about 1 pound. There is no need to peel the sweet potatoes."}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"BBQ &amp; Grilling"},{"recipe_tags":"Vegetables"}]</t>
         </is>
       </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"177\nCalories\n\n\n14g \nFat\n\n\n13g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699656367-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/y-26Y4X3GHLnAXni_MDEQVUyqb8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1271x0:1273x2):format(webp)/7612694-c346a3dc84f14c45ac34e74574254a87.jpg"
@@ -594,59 +911,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/278331/air-fryer-roasted-pineapple/</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Air Fryer Roasted Pineapple</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  fresh pineapple"}]</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  fresh pineapple'}]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the air fryer to 375 degrees F (190 degrees C). Line the air fryer basket with parchment paper."},{"recipe_directions":"Core pineapple using a pineapple corer or slicer and slice into rings. Place pineapple rings into the prepared basket."},{"recipe_directions":"Air fry until slices start to roast, 8 to 10 minutes. Flip slices over and air fry an additional 3 to 5 minutes."}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegan"},{"recipe_tags":"Side Dishes"}]</t>
         </is>
       </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"341\nCalories\n\n\n1g \nFat\n\n\n89g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699656370-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ixf_pJb-c1o4_Hqt-bZACbEe2q8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/210528-17a1ccd3e6f6438197749b7fdd03f6e5.jpg"
@@ -659,59 +972,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/47613/sugar-snap-peas/</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Sugar Snap Peas</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ pound sugar snap peas\n\n\n1 tablespoon olive oil\n\n\n1 tablespoon chopped shallots\n\n\n1 teaspoon chopped fresh thyme\n\n\n  kosher salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ pound sugar snap peas\n\n\n1 tablespoon olive oil\n\n\n1 tablespoon chopped shallots\n\n\n1 teaspoon chopped fresh thyme\n\n\n  kosher salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 450 degrees F (230 degrees C)."},{"recipe_directions":"Spread sugar snap peas in a single layer on a baking sheet and brush with olive oil. Sprinkle with shallots, thyme, and kosher salt."},{"recipe_directions":"Bake in the preheated oven until tender yet firm, 6 to 8 minutes."}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"}]</t>
         </is>
       </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"59\nCalories\n\n\n3g \nFat\n\n\n5g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699656373-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/3OLC3Zdjnhg8mb6zoSaKWlXzDSU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/266714-chinese-green-bean-stir-fry-SunnyByrd-4x3-1-27b94f8856c34e7db75ff39b6ac64c0c.jpg"
@@ -725,59 +1034,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/49350/chinese-green-bean-stir-fry/</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Chinese Green Bean Stir-Fry</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n40 \n\n\nYield:\n10 pounds"}]</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup vegetable oil\n\n\n13 pounds fresh green beans, trimmed\n\n\n5 tablespoons minced garlic\n\n\n5 tablespoons minced fresh ginger root\n\n\n2 tablespoons kosher salt\n\n\n1 tablespoon coarsely ground black pepper\n\n\n2 (8 ounce) bottles black bean sauce"}]</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup vegetable oil\n\n\n13 pounds fresh green beans, trimmed\n\n\n5 tablespoons minced garlic\n\n\n5 tablespoons minced fresh ginger root\n\n\n2 tablespoons kosher salt\n\n\n1 tablespoon coarsely ground black pepper\n\n\n2 (8 ounce) bottles black bean sauce'}]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large wok, heat oil over medium-high heat. Stir in green beans; cook, stirring frequently, for 1 to 2 minutes. Stir in garlic and ginger; cook, stirring frequently, for 3 to 4 minutes. Season with salt and pepper, and then stir in black bean sauce. Continue cooking until green beans are tender."}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Green Beans"}]</t>
         </is>
       </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"107\nCalories\n\n\n6g \nFat\n\n\n12g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699656376-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/eCvKxbxZeAfqgMeQkSDijyoPLU0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1539911-5626b644703e4f1f8fa9446f36719f29.jpg"
@@ -790,59 +1095,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/22935/pumpkin-puree/</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Homemade Pumpkin Puree</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 30 mins\n\n\nServings:\n5 \n\n\nYield:\n1 pumpkin"}]</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  sugar pumpkin"}]</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  sugar pumpkin'}]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Skip the store-bought stuff and make pumpkin puree at home with this top-rated recipe."},{"recipe_directions":"Pumpkin puree is simply cooked pumpkin flesh that has been blended, mashed, grinded, or processed to create a smooth puree. It can be served as a side dish or used as an ingredient in cooking or baking."},{"recipe_directions":"While large carving pumpkins are perfect for creating festive Jack-O’-Lanterns, they’re not ideal for making pumpkin puree. The best pumpkins for puree are sugar pumpkins, which are small, round, and orange. The smaller the pumpkin, the better — large pumpkins tend to have more moisture and less flavor."},{"recipe_directions":"It couldn’t be simpler to make pumpkin puree at home: Cut the pumpkin in half, remove the seeds and pulp, cover each half in foil, and bake until tender. Scrape the flesh from the halves and puree, then strain to remove any remaining stringy pieces."},{"recipe_directions":"Transfer your homemade pumpkin puree to an airtight container and store it in the refrigerator for up to one week."},{"recipe_directions":"Yes! Pumpkin puree freezes well. If you want the pumpkin puree to last for more than a week, you’ll need to freeze it. You can freeze larger quantities in a zip-top bag and smaller quantities in a muffin tin or ice cube tray. Pumpkin puree will last for up to one year in the freezer. Thaw overnight in the refrigerator."},{"recipe_directions":"“It is very easy and simple to make,” says Pumpkin Seed. “Just make sure you completely cover each pumpkin piece with foil, which will allow it to cook much faster.”"},{"recipe_directions":"“Super simple,” raves Jamie Patton. “I've been using this for nearly five years now and love it! Nothing is better than pumpkin pie with fresh pumpkin!”"},{"recipe_directions":"“This was simple and worked great,” according to Stacy Bermes. “I used smaller (softball-size) pumpkins and put them in the fridge overnight. This made the flesh easier to scrape out and allowed the shells to harden again.”"},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Preheat the oven to 325 degrees F (165 degrees C)."},{"recipe_directions":"Cut pumpkin in half, stem to base. Remove seeds and pulp. Cover each half with foil."},{"recipe_directions":"Bake in the preheated oven, foil-side up, until tender, about 1 hour."},{"recipe_directions":"Scrape pumpkin flesh from shell halves and puree in a blender. Strain to remove any remaining stringy pieces. Use or store in the freezer in freezer-safe bags."}]</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Squash"}]</t>
         </is>
       </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"189\nCalories\n\n\n1g \nFat\n\n\n47g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699656379-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/JmpqQzZYaKt615kRlLsgdn-igSw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(959x0:961x2):format(webp)/7935389-d5973ba393344783a10d42509b35d214.jpg"
@@ -855,59 +1156,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/86925/grilled-soy-sesame-asparagus/</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Grilled Soy-Sesame Asparagus</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n8 mins\n\n\nTotal Time:\n18 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon toasted sesame oil\n\n\n1 tablespoon soy sauce\n\n\n3 cloves garlic, minced\n\n\n1 teaspoon brown sugar\n\n\n1 ½ pounds fresh asparagus, trimmed\n\n\n2 tablespoons toasted sesame seeds"}]</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon toasted sesame oil\n\n\n1 tablespoon soy sauce\n\n\n3 cloves garlic, minced\n\n\n1 teaspoon brown sugar\n\n\n1 ½ pounds fresh asparagus, trimmed\n\n\n2 tablespoons toasted sesame seeds'}]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat grill for high heat."},{"recipe_directions":"In a bowl, mix sesame oil, soy sauce, garlic, and brown sugar. Place asparagus in the bowl, and toss to coat."},{"recipe_directions":"Lightly oil a fine-mesh grill grate. Place asparagus on grate, and cook 8 minutes, until tender but firm. Garnish with sesame seeds to serve."}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Asparagus"}]</t>
         </is>
       </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"100\nCalories\n\n\n6g \nFat\n\n\n10g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699656382-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/3glWukiOXveWb_F5l3ETKQA5llI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/5736579-instant-pot-garlic-roasted-potatoes-mayfrog-4x3-1-12dfa2438f9a471a97b285db8eebd1cc.jpg"
@@ -921,59 +1218,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/261498/instant-pot-garlic-roasted-potatoes/</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Instant Pot Garlic-Roasted Potatoes</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup olive oil\n\n\n1 ½ pounds russet potatoes, peeled and cut into wedges\n\n\n1 teaspoon garlic powder\n\n\n1 teaspoon fine sea salt\n\n\n½ teaspoon thyme\n\n\n½ teaspoon dried rosemary\n\n\n¼ teaspoon ground black pepper\n\n\n1 cup vegetable broth"}]</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup olive oil\n\n\n1 ½ pounds russet potatoes, peeled and cut into wedges\n\n\n1 teaspoon garlic powder\n\n\n1 teaspoon fine sea salt\n\n\n½ teaspoon thyme\n\n\n½ teaspoon dried rosemary\n\n\n¼ teaspoon ground black pepper\n\n\n1 cup vegetable broth'}]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Turn on a multi-functional pressure cooker (such as Instant Pot) and select Sauté function. Heat olive oil in the pot. Cook and stir potatoes in hot oil until lightly golden, 5 to 8 minutes."},{"recipe_directions":"Sprinkle garlic powder, sea salt, thyme, rosemary, and pepper over potatoes. Pour in vegetable broth. Close and lock the lid. Select high pressure according to manufacturer's instructions; set the timer for 7 minutes. Allow 10 to 15 minutes for pressure to build."},{"recipe_directions":"Release pressure carefully using the quick-release method according to manufacturer's instructions, about 5 minutes. Unlock and remove the lid."}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Roasted Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"262\nCalories\n\n\n14g \nFat\n\n\n32g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699656385-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/BCzHpPsYzXPqbrK-b4aO5jaWQws=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(539x0:541x2):format(webp)/8425936-10aeac03b68f4090b6b52907a51edfb7.jpg"
@@ -986,59 +1279,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/262466/easy-sheet-pan-roasted-cauliflower-with-curry/</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Easy Sheet Pan Roasted Cauliflower with Curry</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 tablespoons olive oil\n\n\n1 tablespoon yellow curry powder\n\n\n1 tablespoon lemon juice\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n1 pound cauliflower florets, cut into 1/2-inch slices"}]</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 tablespoons olive oil\n\n\n1 tablespoon yellow curry powder\n\n\n1 tablespoon lemon juice\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n1 pound cauliflower florets, cut into 1/2-inch slices'}]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 400 degrees F (200 degrees C). Line a baking sheet with aluminum foil."},{"recipe_directions":"Combine olive oil, curry powder, lemon juice, salt, and ground black pepper in a bowl. Add cauliflower and toss until well coated. Place in a single layer in the prepared baking sheet."},{"recipe_directions":"Bake in the preheated oven until golden and crispy, about 25 minutes."}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Fruits and Vegetables"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Cauliflower"},{"recipe_tags":"Roasted"}]</t>
         </is>
       </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"125\nCalories\n\n\n11g \nFat\n\n\n7g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699656388-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/vs94PJg6AYEvH8Je9Z2CJ4QxREQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/334552-f35daa66fd8848e98964b86ab73f1b3a.jpg"
@@ -1051,59 +1340,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/24329/spanish-rice-ii/</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Spanish Rice II</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons vegetable oil\n\n\n1 cup uncooked white rice\n\n\n1  onion, chopped\n\n\n½  green bell pepper, chopped\n\n\n2 cups water\n\n\n1 (10 ounce) can diced tomatoes and green chiles\n\n\n2 teaspoons chili powder, or to taste\n\n\n1 teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons vegetable oil\n\n\n1 cup uncooked white rice\n\n\n1  onion, chopped\n\n\n½  green bell pepper, chopped\n\n\n2 cups water\n\n\n1 (10 ounce) can diced tomatoes and green chiles\n\n\n2 teaspoons chili powder, or to taste\n\n\n1 teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a deep skillet over medium heat. Saute rice, onion, and bell pepper until rice is browned and onions are tender."},{"recipe_directions":"Stir in water and tomatoes. Season with chili powder and salt. Cover, and simmer for 30 minutes, or until rice is cooked and liquid is absorbed."}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Rice Side Dish Recipes"},{"recipe_tags":"Spanish Rice Recipes"}]</t>
         </is>
       </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"270\nCalories\n\n\n8g \nFat\n\n\n46g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699656391-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/9El62Agffqo1j9rCdt9RpnO0aVA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1823x0:1825x2):format(webp)/9139180-7bb6a6dd015d4809b8d8bbe46610930f.jpg"
@@ -1114,59 +1399,55 @@
 Lemon-Roasted Broccoli and Asparagus</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/283942/lemon-roasted-broccoli-and-asparagus/</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Lemon-Roasted Broccoli and Asparagus</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ pound broccoli florets\n\n\n3 teaspoons olive oil, divided\n\n\n1 teaspoon lemon pepper, divided\n\n\n1 large lemon, sliced\n\n\n½ pound fresh asparagus, trimmed"}]</t>
-        </is>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ pound broccoli florets\n\n\n3 teaspoons olive oil, divided\n\n\n1 teaspoon lemon pepper, divided\n\n\n1 large lemon, sliced\n\n\n½ pound fresh asparagus, trimmed'}]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Place broccoli florets in a bowl. Add 1 1/2 teaspoons olive oil oil and 1/2 teaspoon of lemon pepper seasoning. Toss to coat and arrange in a single layer on a baking sheet. Place 1/2 of the lemon slices over the top of the broccoli."},{"recipe_directions":"Bake in the preheated oven for 15 minutes."},{"recipe_directions":"Meanwhile place asparagus in the bowl. Add remaining 1 1/2 teaspoons of olive oil and 1/2 teaspoon of lemon pepper. Toss to coat."},{"recipe_directions":"Add asparagus to the baking sheet in a single layer and place remaining lemon slices over the top of the asparagus. Cook for 10 minutes. Remove baking sheet from the oven and toss broccoli and asparagus together. Serve immediately."}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Broccoli"}]</t>
         </is>
       </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"68\nCalories\n\n\n4g \nFat\n\n\n9g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699656394-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/8ewziwyOUmpup5Y9SqIebU-Zz4I=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/5907835-air-fryer-garlic-and-parsley-baby-potatoes-Soup-Loving-Nicole-4x3-1-e0ea8b2c143e4b84b29aa76c5806ccbf.jpg"
@@ -1180,59 +1461,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/268653/air-fryer-garlic-and-parsley-baby-potatoes/</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Air Fryer Garlic and Parsley Baby Potatoes</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound baby potatoes, cut into quarters\n\n\n1 tablespoon avocado oil\n\n\n½ teaspoon granulated garlic\n\n\n½ teaspoon dried parsley\n\n\n¼ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound baby potatoes, cut into quarters\n\n\n1 tablespoon avocado oil\n\n\n½ teaspoon granulated garlic\n\n\n½ teaspoon dried parsley\n\n\n¼ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an air fryer to 350 degrees F (175 degrees C)."},{"recipe_directions":"Place potatoes into a bowl; add oil and toss to coat. Add garlic, parsley, and salt; toss until well distributed. Transfer potatoes to the air fryer basket."},{"recipe_directions":"Place the basket into the preheated air fryer and cook, tossing occasionally, until golden brown, 20 to 25 minutes."},{"recipe_directions":"Feel free to use olive oil instead of avocado oil."}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"}]</t>
         </is>
       </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"120\nCalories\n\n\n4g \nFat\n\n\n20g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1699656397-18</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/6AgSCqd3GoMelbfOY6k0kw2oEaU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/5408968-greek-green-beans-Tom-Harman-1x1-1-e4ad5da666c74f7eb6f034b08711031d.jpg"
@@ -1246,59 +1523,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/73470/greek-green-beans/</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Greek Green Beans</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n55 mins\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¾ cup olive oil\n\n\n2 cups chopped onions\n\n\n1 clove garlic, minced\n\n\n2 pounds fresh green beans, rinsed and trimmed\n\n\n3 large tomatoes, diced\n\n\n2 teaspoons sugar\n\n\n  salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¾ cup olive oil\n\n\n2 cups chopped onions\n\n\n1 clove garlic, minced\n\n\n2 pounds fresh green beans, rinsed and trimmed\n\n\n3 large tomatoes, diced\n\n\n2 teaspoons sugar\n\n\n  salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat the olive oil in a large skillet over medium heat. Cook and stir the onions and garlic in the skillet until tender."},{"recipe_directions":"Mix the green beans, tomatoes, sugar, and salt into the skillet. Reduce heat to low, and continue cooking 45 minutes, or until beans are soft."}]</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Tomatoes"}]</t>
         </is>
       </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"243\nCalories\n\n\n21g \nFat\n\n\n15g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1699656400-19</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/daofNfyd95GvGlElRZIY5J5VgO8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1823x0:1825x2):format(webp)/8998896-1745ae9569494fd58c07f2fe9e061fc6.jpg"
@@ -1311,59 +1584,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/283232/air-fryer-seasoned-breakfast-potatoes/</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Air Fryer Seasoned Breakfast Potatoes</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound russet potatoes, peeled and cut into 1-inch cubes\n\n\n1 tablespoon olive oil\n\n\n1 teaspoon salt\n\n\n½ teaspoon onion powder\n\n\n½ teaspoon paprika\n\n\n⅛ teaspoon ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound russet potatoes, peeled and cut into 1-inch cubes\n\n\n1 tablespoon olive oil\n\n\n1 teaspoon salt\n\n\n½ teaspoon onion powder\n\n\n½ teaspoon paprika\n\n\n⅛ teaspoon ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place cubed potatoes in a bowl, cover with cold water, and let sit 30 minutes."},{"recipe_directions":"Preheat an air fryer to 400 degrees F (200 degrees C)."},{"recipe_directions":"Drain potatoes and pat dry with a paper towel. Add olive oil, salt, onion powder, paprika, and pepper. Stir until evenly combined."},{"recipe_directions":"Place potatoes in the basket of the air fryer and cook for 20 minutes; shaking halfway through cook time."}]</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Potatoes"}]</t>
         </is>
       </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"121\nCalories\n\n\n4g \nFat\n\n\n21g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1699656403-20</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/FWRXty_Moy4pAPg5qqYmElP94XQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(603x0:605x2):format(webp)/8029318-3ec44c3b9b7b402186ceb4d8ffa7207e.jpg"
@@ -1376,59 +1645,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/278680/air-fryer-polenta-fries/</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Air Fryer Polenta Fries</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (16 ounce) package prepared polenta\n\n\n  nonstick olive oil cooking spray\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (16 ounce) package prepared polenta\n\n\n  nonstick olive oil cooking spray\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an air fryer to 350 degrees F (175 degrees C)."},{"recipe_directions":"Slice polenta into long, thin slices resembling french fries."},{"recipe_directions":"Spray the bottom of the basket with cooking spray. Place 1/2 of the polenta fries in the basket and lightly mist the tops with cooking spray. Season with salt and pepper."},{"recipe_directions":"Cook in the preheated air fryer for 10 minutes. Flip the fries with a spatula and cook until crispy, about 5 minutes longer. Transfer fries to a paper towel-lined plate. Repeat with remaining half of fries."}]</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Grain Side Dish Recipes"},{"recipe_tags":"Polenta Recipes"}]</t>
         </is>
       </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"80\nCalories\n\n\n0g \nFat\n\n\n17g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1699656406-21</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/MaTFlSSynxiQ-RkGTBrpHwtegGU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(599x0:601x2):format(webp)/5178391-quick-asparagus-stir-fry-Toi-4x3-1-afde9bc356c0441ab9ada963858f1726.jpg"
@@ -1442,59 +1707,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/262976/quick-asparagus-stir-fry/</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Quick Asparagus Stir-Fry</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons olive oil\n\n\n1 clove garlic, minced\n\n\n1 pound asparagus, trimmed and cut into 1 1/2-inch diagonal pieces\n\n\n  salt\n\n\n1 wedge lemon"}]</t>
-        </is>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons olive oil\n\n\n1 clove garlic, minced\n\n\n1 pound asparagus, trimmed and cut into 1 1/2-inch diagonal pieces\n\n\n  salt\n\n\n1 wedge lemon'}]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a large skillet over medium heat. Add garlic; cook and stir until fragrant, about 30 seconds. Add asparagus and stir-fry until soft but still firm, 4 to 7 minutes."},{"recipe_directions":"Remove from the heat and season with salt. Squeeze lemon wedge over top and serve."}]</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Asparagus"}]</t>
         </is>
       </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"84\nCalories\n\n\n7g \nFat\n\n\n5g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1699656409-22</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/42mQFpTpixANY-yq6MdxlSyenS0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/Roasted-Zucchini-1x1-1-2000-c02c4c64254347539b4ee1ff2b75bd79.jpg"
@@ -1508,59 +1769,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/280900/roasted-zucchini/</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Roasted Zucchini</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound zucchini, cut into 2-inch strips\n\n\n1 ½ tablespoons grapeseed oil\n\n\n1 pinch salt and ground black pepper to taste\n\n\n1 pinch garlic powder\n\n\n1 pinch cayenne pepper\n\n\ncooking spray\n\n\n½  lemon\n\n\n1 tablespoon chopped fresh parsley\n\n\n1 pinch sea salt flakes to taste"}]</t>
-        </is>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound zucchini, cut into 2-inch strips\n\n\n1 ½ tablespoons grapeseed oil\n\n\n1 pinch salt and ground black pepper to taste\n\n\n1 pinch garlic powder\n\n\n1 pinch cayenne pepper\n\n\ncooking spray\n\n\n½  lemon\n\n\n1 tablespoon chopped fresh parsley\n\n\n1 pinch sea salt flakes to taste'}]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C). Place a rimmed baking sheet in the oven to heat up."},{"recipe_directions":"Place zucchini in a bowl. Add oil, salt, pepper, garlic powder, and cayenne; toss to coat."},{"recipe_directions":"Carefully remove the hot baking sheet and spray lightly with cooking spray. Spread out zucchini in an even layer."},{"recipe_directions":"Roast in the preheated oven until browned, turning halfway, about 20 minutes. Squeeze lemon juice on top and garnish with parsley. Sprinkle sea salt on top."}]</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Squash"},{"recipe_tags":"Zucchini"}]</t>
         </is>
       </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"131\nCalories\n\n\n11g \nFat\n\n\n9g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>1699656412-23</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/0G8LRhZCmfzrt7KY9w2C7fPteEA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1103965-0c79ddcc8b83487592c8c6a153814465.jpg"
@@ -1573,59 +1830,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/87590/japanese-style-sesame-green-beans/</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Japanese-Style Sesame Green Beans</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon canola oil\n\n\n1 ½ teaspoons sesame oil\n\n\n1 pound fresh green beans, washed\n\n\n1 tablespoon soy sauce\n\n\n1 tablespoon toasted sesame seeds"}]</t>
-        </is>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon canola oil\n\n\n1 ½ teaspoons sesame oil\n\n\n1 pound fresh green beans, washed\n\n\n1 tablespoon soy sauce\n\n\n1 tablespoon toasted sesame seeds'}]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Warm a large skillet or wok over medium heat. When the skillet is hot, pour in canola and sesame oils, then place whole green beans into the skillet. Stir the beans to coat with oil. Cook until the beans are bright green and slightly browned in spots, about 10 minutes. Remove from heat, and stir in soy sauce; cover, and let sit about 5 minutes. Transfer to a serving platter, and sprinkle with toasted sesame seeds."}]</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Green Beans"}]</t>
         </is>
       </c>
-      <c r="K24" s="1" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"97\nCalories\n\n\n7g \nFat\n\n\n9g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>1699656415-24</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/bewrOcB5O2JWPvhzm0bYEeQap_4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1631x0:1633x2):format(webp)/5541546-6fbf64ad690649afb115b47c34c77bc7.jpg"
@@ -1638,59 +1891,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/266402/corn-on-the-cob-in-the-microwave/</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Corn on the Cob in the Microwave</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H25" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 ears fresh corn, shucked"}]</t>
-        </is>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 ears fresh corn, shucked'}]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Wrap each ear of corn in a damp paper towel. Place all ears into a large zip-top bag, but don't seal the bag."},{"recipe_directions":"Microwave on high for 8 minutes, flipping the bag halfway through."}]</t>
         </is>
       </c>
-      <c r="J25" s="1" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Corn"}]</t>
         </is>
       </c>
-      <c r="K25" s="1" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"77\nCalories\n\n\n1g \nFat\n\n\n17g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>1699656418-25</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/t2iCng_3RpAVoh-vkQYiCZH2Z-0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/5779399-instant-pot-roasted-brussels-sprouts-KGora-1x1-1-0f784e38b6954fd6bf9d8186933196f3.jpg"
@@ -1704,59 +1953,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/261494/instant-pot-roasted-brussels-sprouts/</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Instant Pot Roasted Brussels Sprouts</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H26" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons olive oil\n\n\n1  onion, chopped\n\n\n1 pound whole Brussels sprouts\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n½ cup vegetable broth"}]</t>
-        </is>
-      </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons olive oil\n\n\n1  onion, chopped\n\n\n1 pound whole Brussels sprouts\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n½ cup vegetable broth'}]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Turn on a multi-functional pressure cooker (such as Instant Pot) and select Sauté function. Heat olive oil in the pot; cook and stir onion in hot oil until translucent, about 2 minutes. Add Brussels sprouts and cook for 1 minute more. Sprinkle with salt and pepper; pour vegetable broth over Brussels sprouts. Close and lock the lid. Select high pressure according to manufacturer's instructions; set the timer for 3 minutes. Allow 10 to 15 minutes for pressure to build."},{"recipe_directions":"Release pressure carefully using the quick-release method according to manufacturer's instructions, about 5 minutes. Unlock and remove the lid."}]</t>
         </is>
       </c>
-      <c r="J26" s="1" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Brussels Sprouts"}]</t>
         </is>
       </c>
-      <c r="K26" s="1" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"113\nCalories\n\n\n7g \nFat\n\n\n11g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>1699656421-26</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/gaRcIO-yxCSQ_BlTYznocQ4F3i4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1067026-green-bean-curry-Barbara-Martinez-4x3-1-fe026ab9a3db40a1b1b55e33e47bdbf7.jpg"
@@ -1770,59 +2015,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/132364/green-bean-curry/</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Green Bean Curry</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H27" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon vegetable oil\n\n\n1  onion, sliced\n\n\n5  fresh curry leaves\n\n\n1  serrano peppers, thinly sliced\n\n\n1 clove garlic, crushed\n\n\n1 tablespoon curry powder\n\n\n½ teaspoon fenugreek seeds\n\n\n¼ teaspoon ground turmeric\n\n\n  salt to taste\n\n\n1 pound fresh green beans, trimmed\n\n\n½ cup coconut milk\n\n\n2 tablespoons lime juice"}]</t>
-        </is>
-      </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon vegetable oil\n\n\n1  onion, sliced\n\n\n5  fresh curry leaves\n\n\n1  serrano peppers, thinly sliced\n\n\n1 clove garlic, crushed\n\n\n1 tablespoon curry powder\n\n\n½ teaspoon fenugreek seeds\n\n\n¼ teaspoon ground turmeric\n\n\n  salt to taste\n\n\n1 pound fresh green beans, trimmed\n\n\n½ cup coconut milk\n\n\n2 tablespoons lime juice'}]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a saucepan over medium-high heat. Cook and stir onion, curry leaves, serrano peppers, and garlic in hot oil until onion is golden brown. Stir in curry powder, fenugreek seeds, turmeric, and salt; cook for 3 minutes more."},{"recipe_directions":"Stir in green beans until evenly coated. Reduce heat to medium-low and cook until beans are tender-crisp. Pour in coconut milk and simmer for at least 5 minutes more. Remove from heat and stir in lime juice just before serving."}]</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Green Beans"}]</t>
         </is>
       </c>
-      <c r="K27" s="1" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"105\nCalories\n\n\n7g \nFat\n\n\n11g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>1699656424-27</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/MRtzphk5ljOFXp9m5ym7PM8YPhE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3566632-73b734045eaa42059c6000f815ce4397.jpg"
@@ -1835,59 +2076,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E28" s="1" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/168881/garlic-teriyaki-edamame/</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Garlic Teriyaki Edamame</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup water\n\n\n3 cloves garlic, minced\n\n\n1 (16 ounce) package frozen edamame in the pod\n\n\n¼ cup teriyaki sauce\n\n\n2 tablespoons brown sugar\n\n\n2 tablespoons rice vinegar\n\n\n1 tablespoon sesame oil\n\n\n2 tablespoons sesame seeds"}]</t>
-        </is>
-      </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup water\n\n\n3 cloves garlic, minced\n\n\n1 (16 ounce) package frozen edamame in the pod\n\n\n¼ cup teriyaki sauce\n\n\n2 tablespoons brown sugar\n\n\n2 tablespoons rice vinegar\n\n\n1 tablespoon sesame oil\n\n\n2 tablespoons sesame seeds'}]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring water and garlic to a boil in a saucepan over high heat. Stir in edamame; cook until edamame are hot and liquid has nearly evaporated, about 5 minutes."},{"recipe_directions":"Reduce heat to medium-high and stir in teriyaki sauce, brown sugar, rice vinegar, and sesame oil. Stir constantly until sauce has thickened and coats edamame, about 4 minutes. Sprinkle with sesame seeds to serve."}]</t>
         </is>
       </c>
-      <c r="J28" s="1" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegan"},{"recipe_tags":"Side Dishes"}]</t>
         </is>
       </c>
-      <c r="K28" s="1" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"261\nCalories\n\n\n12g \nFat\n\n\n23g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>1699656428-28</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/CX9isOCv9oKJAcG8_5Oyt3Q79hg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/705153-c426d8f1349f4038bb7cb4b42b6097a7.jpg"
@@ -1900,59 +2137,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E29" s="1" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/77215/roasted-beets-n-sweets/</t>
         </is>
       </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Roasted Beets 'n Sweets</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H29" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 medium beets, peeled and cut into chunks\n\n\n2 ½ tablespoons olive oil, divided\n\n\n1 teaspoon garlic powder\n\n\n1 teaspoon kosher salt\n\n\n1 teaspoon ground black pepper\n\n\n1 teaspoon sugar\n\n\n3 medium sweet potatoes, cut into chunks\n\n\n1 large sweet onion, chopped"}]</t>
-        </is>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 medium beets, peeled and cut into chunks\n\n\n2 ½ tablespoons olive oil, divided\n\n\n1 teaspoon garlic powder\n\n\n1 teaspoon kosher salt\n\n\n1 teaspoon ground black pepper\n\n\n1 teaspoon sugar\n\n\n3 medium sweet potatoes, cut into chunks\n\n\n1 large sweet onion, chopped'}]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C)."},{"recipe_directions":"Toss beets with 1/2 tablespoon olive oil to coat in a bowl. Spread in a single layer on a baking sheet."},{"recipe_directions":"Mix remaining 2 tablespoons olive oil, garlic powder, salt, pepper, and sugar in a large resealable plastic bag. Place sweet potatoes and onion in the bag. Seal the bag and shake to coat vegetables with the oil mixture."},{"recipe_directions":"Bake beets in the preheated oven for 15 minutes. Mix sweet potato mixture with beets on the baking sheet. Continue baking, stirring after 20 minutes, until all vegetables are tender, about 45 minutes."}]</t>
         </is>
       </c>
-      <c r="J29" s="1" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Sweet Potatoes"}]</t>
         </is>
       </c>
-      <c r="K29" s="1" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"195\nCalories\n\n\n6g \nFat\n\n\n34g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>1699656431-29</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/EO9bbQVBEYJIYxauJVwbstf3Oq4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1823x0:1825x2):format(webp)/8810623-0d3e998870014310a85ebf47c88cc91b.jpg"
@@ -1965,59 +2198,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E30" s="1" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/282576/air-fryer-spaghetti-squash/</t>
         </is>
       </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Air Fryer Spaghetti Squash</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H30" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (3 pound) spaghetti squash\n\n\n1 teaspoon olive oil\n\n\n¼ teaspoon sea salt\n\n\n⅛ teaspoon ground black pepper\n\n\n⅛ teaspoon smoked paprika"}]</t>
-        </is>
-      </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (3 pound) spaghetti squash\n\n\n1 teaspoon olive oil\n\n\n¼ teaspoon sea salt\n\n\n⅛ teaspoon ground black pepper\n\n\n⅛ teaspoon smoked paprika'}]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Using a sharp knife, make a dotted line lengthwise around the entire squash. Place whole squash in the microwave and cook on full power to help it cut more easily, about 3 to 5 minutes. Transfer to a cutting board and cut the squash in half lengthwise, using the dotted line as a guide. Wrap one half in plastic wrap and refrigerate for another use."},{"recipe_directions":"Spoon pulp and seeds out of remaining half and discard. Brush olive oil over all of the flesh and sprinkle with salt, pepper, and paprika."},{"recipe_directions":"Preheat an air fryer to 360 degrees F (180 degrees C). Place spaghetti squash half skin side-down in the basket. Cook until squash is tender, about 18 to 20 minutes."},{"recipe_directions":"Transfer to a dish and fluff with a fork to create \"noodles\"."}]</t>
         </is>
       </c>
-      <c r="J30" s="1" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Squash"}]</t>
         </is>
       </c>
-      <c r="K30" s="1" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"233\nCalories\n\n\n6g \nFat\n\n\n47g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>1699656435-30</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/OoNQpk8GT4w6ybfBDP8uOSCooc0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2408x1480:2410x1482):format(webp)/70312-Refried-Beans-Without-the-Fry-DDMFS-4X3-2643-f6a23c1b1e5d41108f8a1e7a07284202.jpg"
@@ -2031,59 +2260,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E31" s="1" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/70312/refried-beans-without-the-refry/</t>
         </is>
       </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Refried Beans Without the Refry</t>
         </is>
       </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 8 hrs\n\n\nTotal Time:\n 8 hrs 15 mins\n\n\nServings:\n15"}]</t>
         </is>
       </c>
-      <c r="H31" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups dry pinto beans, rinsed\n\n\n1  onion, peeled and halved\n\n\n½  fresh jalapeno pepper, seeded and chopped\n\n\n2 tablespoons minced garlic\n\n\n5 teaspoons salt\n\n\n1 ¾ teaspoons fresh ground black pepper \n\n\n⅛ teaspoon ground cumin, optional\n\n\n9 cups water"}]</t>
-        </is>
-      </c>
-      <c r="I31" s="1" t="inlineStr">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups dry pinto beans, rinsed\n\n\n1  onion, peeled and halved\n\n\n½  fresh jalapeno pepper, seeded and chopped\n\n\n2 tablespoons minced garlic\n\n\n5 teaspoons salt\n\n\n1 ¾ teaspoons fresh ground black pepper \n\n\n⅛ teaspoon ground cumin, optional\n\n\n9 cups water'}]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Place beans, onion, jalapeño, garlic, salt, pepper, and cumin into a slow cooker. Pour in water; stir to combine."},{"recipe_directions":"Cook on High until beans are very tender, about 8 hours; add more water as needed."},{"recipe_directions":"Strain beans and reserve cooking liquid."},{"recipe_directions":"Transfer beans to a large, shallow bowl. Use a potato masher to mash beans, adding reserved cooking liquid as needed to reach desired consistency."},{"recipe_directions":"Enjoy!"},{"recipe_directions":"If more than 1 cup water has evaporated during cooking in step 2, then the temperature is too high."}]</t>
         </is>
       </c>
-      <c r="J31" s="1" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Beans and Peas"}]</t>
         </is>
       </c>
-      <c r="K31" s="1" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"139\nCalories\n\n\n1g \nFat\n\n\n25g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>1699656438-31</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/5uB24du72rcAU7ONiVn_R5X1xAA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/892991-7b3bbca134c844be892875531f30da4b.jpg"
@@ -2096,59 +2321,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E32" s="1" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/22308/fried-plantains/</t>
         </is>
       </c>
-      <c r="F32" s="1" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Fried Plantains</t>
         </is>
       </c>
-      <c r="G32" s="1" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H32" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups oil for frying, or as needed\n\n\n2 large plantains"}]</t>
-        </is>
-      </c>
-      <c r="I32" s="1" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups oil for frying, or as needed\n\n\n2 large plantains'}]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oil in a large, deep skillet over medium-high heat."},{"recipe_directions":"Peel plantains. Cut in half crosswise, then cut each half lengthwise into thin pieces."},{"recipe_directions":"Working in batches, fry plantains in the hot oil until browned and crispy on the outside and tender on the inside, 2 to 3 minutes per side. Drain on a paper towel-lined plate."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. The exact amount may vary depending on cook time and temperature, ingredient density, and the specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J32" s="1" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegan"},{"recipe_tags":"Side Dishes"}]</t>
         </is>
       </c>
-      <c r="K32" s="1" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"595\nCalories\n\n\n55g \nFat\n\n\n29g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>1699656441-32</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/IvazirMj2ZUoWtGKaDx1Hk2cTHY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/7174019-4a523f39b0224470be40f55f231cbfde.jpg"
@@ -2161,59 +2382,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E33" s="1" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/276566/baked-spaghetti-squash/</t>
         </is>
       </c>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Baked Spaghetti Squash</t>
         </is>
       </c>
-      <c r="G33" s="1" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n40 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H33" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon olive oil\n\n\n1  spaghetti squash, halved and seeded"}]</t>
-        </is>
-      </c>
-      <c r="I33" s="1" t="inlineStr">
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon olive oil\n\n\n1  spaghetti squash, halved and seeded'}]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Lightly grease a baking sheet with olive oil. Place spaghetti squash, cut-side down, onto the baking sheet."},{"recipe_directions":"Bake in the preheated oven until tender and skin can easily be pierced with a fork, 40 to 60 minutes, depending on the size."},{"recipe_directions":"Remove from the oven and allow to rest until cool enough to handle. Scrape out the flesh with a fork and discard the skins."}]</t>
         </is>
       </c>
-      <c r="J33" s="1" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Squash"}]</t>
         </is>
       </c>
-      <c r="K33" s="1" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"84\nCalories\n\n\n4g \nFat\n\n\n12g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>1699656444-33</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D34" s="1" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/QBsDzyALhMH175Rrs5WDEtUY8yM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1046676-spiced-slow-cooker-applesauce-NERDBOX-4x3-1-60881fed06964230acd0b8864e20c3c8.jpg"
@@ -2227,59 +2444,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E34" s="1" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/149218/spiced-slow-cooker-applesauce/</t>
         </is>
       </c>
-      <c r="F34" s="1" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Slow Cooker Applesauce</t>
         </is>
       </c>
-      <c r="G34" s="1" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 6 hrs 30 mins\n\n\nTotal Time:\n 6 hrs 40 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H34" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8  apples - peeled, cored, and thinly sliced\n\n\n½ cup water\n\n\n¾ cup packed brown sugar\n\n\n½ teaspoon pumpkin pie spice"}]</t>
-        </is>
-      </c>
-      <c r="I34" s="1" t="inlineStr">
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8  apples - peeled, cored, and thinly sliced\n\n\n½ cup water\n\n\n¾ cup packed brown sugar\n\n\n½ teaspoon pumpkin pie spice'}]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine apples and water in a slow cooker; cook on Low for 6 to 8 hours. Stir in brown sugar and pumpkin pie spice; continue cooking another 30 minutes."}]</t>
         </is>
       </c>
-      <c r="J34" s="1" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Applesauce Recipes"}]</t>
         </is>
       </c>
-      <c r="K34" s="1" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"151\nCalories\n\n\n0g \nFat\n\n\n39g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>1699656447-34</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D35" s="1" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/FAcLj3rav2ZcdI_jse9Ev86_3gc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/28166-e67b80324158459ead2958295d5169e2.jpg"
@@ -2292,59 +2505,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E35" s="1" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/25310/dolmas-stuffed-grape-leaves/</t>
         </is>
       </c>
-      <c r="F35" s="1" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Dolmas (Stuffed Grape Leaves)</t>
         </is>
       </c>
-      <c r="G35" s="1" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n45 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n 1 hr 30 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H35" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon olive oil\n\n\n2  onions, minced\n\n\n1 ½ cups uncooked white rice\n\n\n1 1/2 cups hot water, or as needed to cover\n\n\n2 tablespoons tomato paste\n\n\n2 tablespoons dried currants\n\n\n2 tablespoons pine nuts\n\n\n1 tablespoon ground cinnamon\n\n\n1 tablespoon dried mint\n\n\n1 tablespoon dried dill weed\n\n\n1 teaspoon ground allspice\n\n\n1 teaspoon ground cumin\n\n\n1 (8 ounce) jar grape leaves, drained and rinsed in warm water"}]</t>
-        </is>
-      </c>
-      <c r="I35" s="1" t="inlineStr">
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon olive oil\n\n\n2  onions, minced\n\n\n1 ½ cups uncooked white rice\n\n\n1 1/2 cups hot water, or as needed to cover\n\n\n2 tablespoons tomato paste\n\n\n2 tablespoons dried currants\n\n\n2 tablespoons pine nuts\n\n\n1 tablespoon ground cinnamon\n\n\n1 tablespoon dried mint\n\n\n1 tablespoon dried dill weed\n\n\n1 teaspoon ground allspice\n\n\n1 teaspoon ground cumin\n\n\n1 (8 ounce) jar grape leaves, drained and rinsed in warm water'}]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a medium saucepan over medium heat. Add onions and sauté until tender, about 5 minutes. Stir in rice, then add enough hot water to cover. Cover and simmer until rice is halfway cooked, about 10 minutes."},{"recipe_directions":"Remove from the heat and stir in tomato paste, currants, pine nuts, cinnamon, mint, dill, allspice, and cumin. Let mixture cool, about 15 minutes."},{"recipe_directions":"Prepare a large pot by placing an inverted plate on the bottom; this will protect the dolmas from direct heat during steaming."},{"recipe_directions":"Cut off and discard any grape leaf stems. Place about 1 teaspoon cooled rice mixture into the center of a leaf. Fold in the sides, then roll into a cigar shape. Place into the prepared pot. Repeat to make remaining dolmas."},{"recipe_directions":"Pour in just enough warm water to reach the bottom of the first layer of dolmas. Cover and simmer over low heat for 30 to 45 minutes, or until rice is totally cooked. Check the water level often and add more as necessary."}]</t>
         </is>
       </c>
-      <c r="J35" s="1" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Rice Side Dish Recipes"}]</t>
         </is>
       </c>
-      <c r="K35" s="1" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"207\nCalories\n\n\n4g \nFat\n\n\n39g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>1699656450-35</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D36" s="1" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/hWtQ5chBCp5WXvE6qIiDS3hr4KE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(599x0:601x2):format(webp)/9431233-28b51f252d614210a439258e4a95c047.jpg"
@@ -2357,59 +2566,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E36" s="1" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/21009/sheet-pan-roasted-vegetables/</t>
         </is>
       </c>
-      <c r="F36" s="1" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Sheet Pan Roasted Vegetables</t>
         </is>
       </c>
-      <c r="G36" s="1" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n 1 hr 30 mins\n\n\nTotal Time:\n 2 hrs\n\n\nServings:\n24 \n\n\nYield:\n24 servings"}]</t>
         </is>
       </c>
-      <c r="H36" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8  zucchini, peeled and chopped\n\n\n1  eggplant, peeled and diced\n\n\n8  carrots, diced\n\n\n16  cherry tomatoes\n\n\n2  red onions, sliced\n\n\n1  red bell pepper, sliced\n\n\n1  yellow bell pepper, sliced\n\n\n½ cup olive oil\n\n\n1 teaspoon dried rosemary\n\n\n1 teaspoon dried thyme\n\n\n2  bay leaves, crushed\n\n\n1 teaspoon dried oregano\n\n\n2 cloves garlic, minced\n\n\n2 tablespoons fresh lemon juice\n\n\n1 teaspoon grated lemon zest\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I36" s="1" t="inlineStr">
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8  zucchini, peeled and chopped\n\n\n1  eggplant, peeled and diced\n\n\n8  carrots, diced\n\n\n16  cherry tomatoes\n\n\n2  red onions, sliced\n\n\n1  red bell pepper, sliced\n\n\n1  yellow bell pepper, sliced\n\n\n½ cup olive oil\n\n\n1 teaspoon dried rosemary\n\n\n1 teaspoon dried thyme\n\n\n2  bay leaves, crushed\n\n\n1 teaspoon dried oregano\n\n\n2 cloves garlic, minced\n\n\n2 tablespoons fresh lemon juice\n\n\n1 teaspoon grated lemon zest\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large bowl mix the zucchini, eggplant, carrots, tomatoes, onions and peppers with the oil, rosemary, thyme, bay leaves, oregano, garlic, lemon juice, lemon zest, salt and pepper. Cover and chill for at least 2 hours, and preferably overnight."},{"recipe_directions":"Preheat oven to 400 degrees F (200 degrees C)."},{"recipe_directions":"On a large roasting pan, roast the vegetables, uncovered, for 20 minutes, or until the tomatoes have split and the edges of some of the vegetables are starting to crisp. Remove from the oven and stir before returning to the oven for another 20 minutes. At this time reduce heat to 200 degrees F (95 degrees C) and continue cooking until vegetables are tender, turning every 20 minutes."}]</t>
         </is>
       </c>
-      <c r="J36" s="1" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Roasted Vegetable Recipes"}]</t>
         </is>
       </c>
-      <c r="K36" s="1" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"72\nCalories\n\n\n5g \nFat\n\n\n7g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>1699656454-36</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D37" s="1" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/pCYw98fkLINpzvadqYlYxq0Qh5E=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/391627-1c7808110d4d42beaf30e828ec4a77bf.jpg"
@@ -2423,59 +2628,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E37" s="1" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/152937/ethiopian-cabbage-dish/</t>
         </is>
       </c>
-      <c r="F37" s="1" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Ethiopian Cabbage Dish</t>
         </is>
       </c>
-      <c r="G37" s="1" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n40 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n5"}]</t>
         </is>
       </c>
-      <c r="H37" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup olive oil\n\n\n4 medium carrots, thinly sliced\n\n\n1 medium onion, thinly sliced\n\n\n½ head green cabbage, shredded\n\n\n1 teaspoon sea salt\n\n\n½ teaspoon ground black pepper\n\n\n½ teaspoon ground cumin, or to taste\n\n\n¼ teaspoon ground turmeric, or to taste\n\n\n5 medium potatoes, peeled and cut into 1-inch cubes"}]</t>
-        </is>
-      </c>
-      <c r="I37" s="1" t="inlineStr">
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup olive oil\n\n\n4 medium carrots, thinly sliced\n\n\n1 medium onion, thinly sliced\n\n\n½ head green cabbage, shredded\n\n\n1 teaspoon sea salt\n\n\n½ teaspoon ground black pepper\n\n\n½ teaspoon ground cumin, or to taste\n\n\n¼ teaspoon ground turmeric, or to taste\n\n\n5 medium potatoes, peeled and cut into 1-inch cubes'}]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat olive oil in a skillet over medium heat. Add carrots and onion; cook and stir until beginning to soften, about 5 minutes. Stir in cabbage, salt, pepper, cumin, and turmeric; cook for 15 to 20 minutes."},{"recipe_directions":"Add potatoes; reduce heat to medium-low, cover, and cook until potatoes are soft, about 20 minutes."}]</t>
         </is>
       </c>
-      <c r="J37" s="1" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Cabbage"}]</t>
         </is>
       </c>
-      <c r="K37" s="1" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"407\nCalories\n\n\n22g \nFat\n\n\n50g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>1699656457-37</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/WLKlBeuDyXoOTbYJC4ITMfb2Lqc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/267304-air-fryer-roasted-cauliflower-ddmfs-step-4x3-64dd8aa5047348d7b3ec887860222f63.jpg"
@@ -2489,59 +2690,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E38" s="1" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/267304/air-fryer-roasted-cauliflower/</t>
         </is>
       </c>
-      <c r="F38" s="1" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Air Fryer Roasted Cauliflower</t>
         </is>
       </c>
-      <c r="G38" s="1" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H38" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cloves garlic\n\n\n1 tablespoon peanut oil\n\n\n½ teaspoon salt\n\n\n½ teaspoon smoked paprika\n\n\n4 cups cauliflower florets"}]</t>
-        </is>
-      </c>
-      <c r="I38" s="1" t="inlineStr">
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cloves garlic\n\n\n1 tablespoon peanut oil\n\n\n½ teaspoon salt\n\n\n½ teaspoon smoked paprika\n\n\n4 cups cauliflower florets'}]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Preheat an air fryer to 400 degrees F (200 degrees C) according to manufacturer's instructions."},{"recipe_directions":"Cut garlic in half and smash with the blade of a knife. Place in a bowl with oil, salt, and paprika. Add cauliflower and toss to coat."},{"recipe_directions":"Place coated cauliflower in the basket of the air fryer and cook to desired crispness, about 15 minutes, shaking the basket every 5 minutes."},{"recipe_directions":"After 15 minutes, the cauliflower will still have some crunch; cook for an additional 5 minutes if you want it softer. The timing really depends on the size of the cauliflower, so check frequently."}]</t>
         </is>
       </c>
-      <c r="J38" s="1" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Cauliflower"}]</t>
         </is>
       </c>
-      <c r="K38" s="1" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"118\nCalories\n\n\n7g \nFat\n\n\n12g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>1699656460-38</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/h0G1N1M7aceYxMUMFSop57BUB7M=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/267149-air-fryer-spicy-green-beans-ddmfs-3X4-0590-fff30e398cc5474ca3ade0aa98729539.jpg"
@@ -2555,59 +2752,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E39" s="1" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/267149/air-fryer-spicy-green-beans/</t>
         </is>
       </c>
-      <c r="F39" s="1" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Spicy Air Fryer Green Beans</t>
         </is>
       </c>
-      <c r="G39" s="1" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H39" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"12 ounces fresh green beans, trimmed\n\n\n1 tablespoon sesame oil\n\n\n1 teaspoon soy sauce\n\n\n1 teaspoon rice wine vinegar\n\n\n1 clove garlic, minced\n\n\n½ teaspoon red pepper flakes, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I39" s="1" t="inlineStr">
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '12 ounces fresh green beans, trimmed\n\n\n1 tablespoon sesame oil\n\n\n1 teaspoon soy sauce\n\n\n1 teaspoon rice wine vinegar\n\n\n1 clove garlic, minced\n\n\n½ teaspoon red pepper flakes, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients. Preheat an air fryer to 400 degrees F (200 degrees C)."},{"recipe_directions":"Place green beans in a large bowl. Whisk together sesame oil, soy sauce, rice wine vinegar, garlic, and red pepper flakes in a separate bowl, then pour over green beans. Toss to coat and let marinate for 5 minutes."},{"recipe_directions":"Place 1/2 of the green beans in the air fryer basket."},{"recipe_directions":"Cook in the preheated air fryer, shaking basket halfway, until crispy, about 10 to 12 minutes. Repeat with remaining green beans."}]</t>
         </is>
       </c>
-      <c r="J39" s="1" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Green Beans"}]</t>
         </is>
       </c>
-      <c r="K39" s="1" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"60\nCalories\n\n\n4g \nFat\n\n\n7g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>1699656463-39</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/2bZVkpvx_Exf2QpPS4A9Y88Yxec=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/267408-spicy-vietnamese-quick-pickled-vegetables-DDMFS-4x3-2719-becd9a3a80ce497a81f66ef8912dfae1.jpg"
@@ -2621,59 +2814,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E40" s="1" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/267408/spicy-vietnamese-quick-pickled-vegetables/</t>
         </is>
       </c>
-      <c r="F40" s="1" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Spicy Vietnamese Quick-Pickled Vegetables</t>
         </is>
       </c>
-      <c r="G40" s="1" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n 1 hr 40 mins\n\n\nTotal Time:\n 2 hrs 10 mins\n\n\nServings:\n10 \n\n\nYield:\n2 pints"}]</t>
         </is>
       </c>
-      <c r="H40" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups water\n\n\n1 ½ cups rice vinegar\n\n\n2 tablespoons white sugar\n\n\n2 teaspoons salt\n\n\n½ pound carrots, peeled and cut into matchsticks\n\n\n½ pound purple daikon radish, peeled and cut into matchsticks\n\n\n½ pound English cucumbers, thinly sliced\n\n\n2 medium jalapeno peppers, sliced into rings"}]</t>
-        </is>
-      </c>
-      <c r="I40" s="1" t="inlineStr">
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups water\n\n\n1 ½ cups rice vinegar\n\n\n2 tablespoons white sugar\n\n\n2 teaspoons salt\n\n\n½ pound carrots, peeled and cut into matchsticks\n\n\n½ pound purple daikon radish, peeled and cut into matchsticks\n\n\n½ pound English cucumbers, thinly sliced\n\n\n2 medium jalapeno peppers, sliced into rings'}]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Inspect two pint-sized jars for cracks, discarding any defective ones. Immerse in simmering water until needed. Wash new, unused lids and rings in warm soapy water."},{"recipe_directions":"Bring water, vinegar, sugar, and salt to a boil in a medium saucepan over medium heat. Cook until sugar dissolves, about 3 minutes. Turn off the heat and let cool for 2 minutes."},{"recipe_directions":"Meanwhile, divide carrots, radish, cucumbers, and jalapeños evenly between the two clean jars. Pour hot liquid over vegetables in the jars and let come to room temperature, about 30 minutes."},{"recipe_directions":"Screw on lids and refrigerate for at least 1 hour before serving."},{"recipe_directions":"The longer you let the vegetables pickle, the better they get. They also get spicier, so only use one jalapeño if you're sensitive to heat."},{"recipe_directions":"Nutrition data for this recipe includes the full amount of brine ingredients. The actual amount consumed will vary."}]</t>
         </is>
       </c>
-      <c r="J40" s="1" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Carrots"}]</t>
         </is>
       </c>
-      <c r="K40" s="1" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"27\nCalories\n\n\n0g \nFat\n\n\n6g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>1699656468-40</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D41" s="1" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/T0vxE2aTMFdfGL4kVLL3-eo2Y8E=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3257483-bc9ddb639d8d45878ce1a0307acb90a1.jpg"
@@ -2686,59 +2875,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E41" s="1" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/275545/crispy-baby-potatoes/</t>
         </is>
       </c>
-      <c r="F41" s="1" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Crispy Baby Potatoes</t>
         </is>
       </c>
-      <c r="G41" s="1" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H41" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ pounds baby potatoes, halved\n\n\n½ teaspoon dried parsley\n\n\n¼ teaspoon garlic powder\n\n\n  salt and ground black pepper to taste\n\n\n1 tablespoon olive oil, or more as needed"}]</t>
-        </is>
-      </c>
-      <c r="I41" s="1" t="inlineStr">
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ pounds baby potatoes, halved\n\n\n½ teaspoon dried parsley\n\n\n¼ teaspoon garlic powder\n\n\n  salt and ground black pepper to taste\n\n\n1 tablespoon olive oil, or more as needed'}]</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place a steamer insert into a saucepan and add enough water to reach the bottom of the steamer. Bring water to a boil. Add potatoes, cover, and steam until fork tender, about 10 minutes."},{"recipe_directions":"Transfer potatoes to a bowl. Add parsley, garlic powder, salt, and pepper; toss to coat."},{"recipe_directions":"Heat oil in a large skillet over medium-high heat. Add potatoes to hot oil and cook, shaking the skillet occasionally, until potatoes are browned on all sides, about 10 minutes."}]</t>
         </is>
       </c>
-      <c r="J41" s="1" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"}]</t>
         </is>
       </c>
-      <c r="K41" s="1" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"162\nCalories\n\n\n4g \nFat\n\n\n30g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>1699656471-41</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/6EHBhhxvV6pDOEs0h_d6IaDhSwo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1133x0:1135x2):format(webp)/8548192-bb711f8007c7478ebe970efa1af8b987.jpg"
@@ -2751,59 +2936,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E42" s="1" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/281277/easy-zucchini-stir-fry/</t>
         </is>
       </c>
-      <c r="F42" s="1" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Zucchini Stir Fry</t>
         </is>
       </c>
-      <c r="G42" s="1" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H42" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon olive oil\n\n\n1 tablespoon minced garlic\n\n\n1 large sweet onion, thinly sliced\n\n\n2 medium zucchini, halved and sliced\n\n\n1 (14.5 ounce) can diced tomatoes\n\n\n1 pinch Italian seasoning, or to taste\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I42" s="1" t="inlineStr">
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon olive oil\n\n\n1 tablespoon minced garlic\n\n\n1 large sweet onion, thinly sliced\n\n\n2 medium zucchini, halved and sliced\n\n\n1 (14.5 ounce) can diced tomatoes\n\n\n1 pinch Italian seasoning, or to taste\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil and garlic in a large skillet or wok over medium heat. Cook and stir onion in hot oil-garlic mixture until onion is almost translucent, about 3 to 5 minutes. Add zucchini; cook and stir until zucchini is slightly crisp, but not mushy, about 10 minutes."},{"recipe_directions":"Stir in diced tomatoes and cook until heated through. Stir in Italian seasoning, salt, and pepper."}]</t>
         </is>
       </c>
-      <c r="J42" s="1" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Squash"},{"recipe_tags":"Zucchini"}]</t>
         </is>
       </c>
-      <c r="K42" s="1" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"83\nCalories\n\n\n4g \nFat\n\n\n11g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>1699656474-42</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/RwZxLC-9h89i-CqZkFPwrnH3otU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3843799-70a6a9e44e5240cdbb121f12ac3c9761.jpg"
@@ -2816,59 +2997,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E43" s="1" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/254978/jersey-fresh-stewed-tomatoes/</t>
         </is>
       </c>
-      <c r="F43" s="1" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Jersey Fresh Stewed Tomatoes</t>
         </is>
       </c>
-      <c r="G43" s="1" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H43" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 large tomatoes - peeled, cored, and chopped\n\n\n¾ cup chopped green bell pepper\n\n\n½ cup chopped sweet onion\n\n\n½ cup chopped celery\n\n\n1 teaspoon white sugar\n\n\n½ teaspoon salt\n\n\n¼ teaspoon dried oregano\n\n\n¼ teaspoon dried basil\n\n\n⅛ teaspoon black pepper\n\n\n1 tablespoon water\n\n\n1 ½ teaspoons cornstarch"}]</t>
-        </is>
-      </c>
-      <c r="I43" s="1" t="inlineStr">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 large tomatoes - peeled, cored, and chopped\n\n\n¾ cup chopped green bell pepper\n\n\n½ cup chopped sweet onion\n\n\n½ cup chopped celery\n\n\n1 teaspoon white sugar\n\n\n½ teaspoon salt\n\n\n¼ teaspoon dried oregano\n\n\n¼ teaspoon dried basil\n\n\n⅛ teaspoon black pepper\n\n\n1 tablespoon water\n\n\n1 ½ teaspoons cornstarch'}]</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cook and stir tomatoes, bell pepper, onion, and celery in a large skillet over medium heat until fragrant, about 10 minutes. Reduce the heat and continue to cook until bell pepper and onion are soft, about 5 minutes. Stir in sugar, salt, oregano, basil, and pepper."},{"recipe_directions":"Whisk water and cornstarch together in a small bowl; stir into the skillet. Simmer tomato mixture until thickened, about 5 minutes."}]</t>
         </is>
       </c>
-      <c r="J43" s="1" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Tomatoes"}]</t>
         </is>
       </c>
-      <c r="K43" s="1" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"37\nCalories\n\n\n0g \nFat\n\n\n8g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>1699656477-43</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/jdftWn1br-ugA7zWmafhgjW36LU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/269912-70b3252c50e7490b896f4945bac3aefe.jpg"
@@ -2881,59 +3058,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E44" s="1" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/89195/zucchini-and-potato-bake/</t>
         </is>
       </c>
-      <c r="F44" s="1" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>Zucchini and Potato Bake</t>
         </is>
       </c>
-      <c r="G44" s="1" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H44" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 medium potatoes, peeled and cut into large chunks\n\n\n2 medium zucchini, quartered and cut into large pieces\n\n\n1 medium red bell pepper, seeded and chopped\n\n\n½ cup dry bread crumbs\n\n\n¼ cup olive oil\n\n\n1 clove garlic, sliced\n\n\n  paprika to taste\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I44" s="1" t="inlineStr">
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 medium potatoes, peeled and cut into large chunks\n\n\n2 medium zucchini, quartered and cut into large pieces\n\n\n1 medium red bell pepper, seeded and chopped\n\n\n½ cup dry bread crumbs\n\n\n¼ cup olive oil\n\n\n1 clove garlic, sliced\n\n\n  paprika to taste\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C)."},{"recipe_directions":"Toss together potatoes, zucchini, red bell pepper, bread crumbs, olive oil, and garlic in a medium baking pan. Season with paprika, salt, and pepper."},{"recipe_directions":"Bake in the preheated oven, stirring occasionally, until potatoes are tender and lightly brown, about 1 hour."}]</t>
         </is>
       </c>
-      <c r="J44" s="1" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Squash"},{"recipe_tags":"Zucchini"}]</t>
         </is>
       </c>
-      <c r="K44" s="1" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"243\nCalories\n\n\n10g \nFat\n\n\n35g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>1699656483-44</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/KYimY-EXtZz5SZNJ9MFRiYB99sg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1275x0:1277x2):format(webp)/4560174-6569f4a0b7b94d74aa30ab9d3c087496.jpg"
@@ -2946,59 +3119,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E45" s="1" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/158891/yummy-korean-glass-noodles-jap-chae/</t>
         </is>
       </c>
-      <c r="F45" s="1" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Yummy Korean Glass Noodles (Japchae)</t>
         </is>
       </c>
-      <c r="G45" s="1" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H45" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (8 ounce) package sweet potato vermicelli (glass noodles)\n\n\n½ cup boiling water\n\n\n½ cup reduced-sodium soy sauce\n\n\n¼ cup brown sugar\n\n\n3 tablespoons vegetable oil\n\n\n1 teaspoon toasted sesame seeds"}]</t>
-        </is>
-      </c>
-      <c r="I45" s="1" t="inlineStr">
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (8 ounce) package sweet potato vermicelli (glass noodles)\n\n\n½ cup boiling water\n\n\n½ cup reduced-sodium soy sauce\n\n\n¼ cup brown sugar\n\n\n3 tablespoons vegetable oil\n\n\n1 teaspoon toasted sesame seeds'}]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Break noodles into small pieces. Place into a deep dish and cover with hot tap water; soak for 10 minutes."},{"recipe_directions":"Meanwhile, whisk boiling water, soy sauce, and brown sugar together in a 2-cup liquid measure."},{"recipe_directions":"Drain noodles and transfer to a bowl. Pour soy mixture over top and soak for 2 minutes."},{"recipe_directions":"Heat oil in a large skillet over medium heat. Add noodles and soy mixture; cook and stir until hot, about 5 minutes."},{"recipe_directions":"Transfer noodles and sauce to serving bowls. Garnish with sesame seeds."}]</t>
         </is>
       </c>
-      <c r="J45" s="1" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegan"},{"recipe_tags":"Side Dishes"}]</t>
         </is>
       </c>
-      <c r="K45" s="1" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"363\nCalories\n\n\n11g \nFat\n\n\n65g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>1699656488-45</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ocUTNSocJS4Tz3FrXgQFVboX2dE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/683817-3f97564935fb4334b9be8ebfb873009b.jpg"
@@ -3011,59 +3180,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E46" s="1" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/74007/grilled-yellow-squash/</t>
         </is>
       </c>
-      <c r="F46" s="1" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>Grilled Yellow Squash</t>
         </is>
       </c>
-      <c r="G46" s="1" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H46" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 medium yellow squash\n\n\n½ cup extra virgin olive oil\n\n\n2 cloves garlic, crushed\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I46" s="1" t="inlineStr">
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 medium yellow squash\n\n\n½ cup extra virgin olive oil\n\n\n2 cloves garlic, crushed\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an outdoor grill for medium heat and lightly oil the grate."},{"recipe_directions":"Cut squash horizontally into 1/4-inch to 1/2-inch thick slices so that you have nice long strips that won't fall through the grill."},{"recipe_directions":"Heat olive oil in a small pan, and add garlic cloves. Cook over medium heat until the garlic starts to sizzle and become fragrant. Brush the slices of squash with the garlic oil and season with salt and pepper."},{"recipe_directions":"Grill squash slices for 5 to 10 minutes per side, until they reach the desired tenderness. Brush with additional garlic oil, and turn occasionally to prevent sticking or burning."}]</t>
         </is>
       </c>
-      <c r="J46" s="1" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Squash"},{"recipe_tags":"Summer Squash"}]</t>
         </is>
       </c>
-      <c r="K46" s="1" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"146\nCalories\n\n\n14g \nFat\n\n\n4g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>1699656493-46</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/zL7moYXllgqEtt14pm23nTT8rG8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1943x0:1945x2):format(webp)/8009306-f3cea50d0205470a8d0618bbfbc70f83.jpg"
@@ -3076,59 +3241,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E47" s="1" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/259457/broccoli-rice/</t>
         </is>
       </c>
-      <c r="F47" s="1" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Broccoli Rice</t>
         </is>
       </c>
-      <c r="G47" s="1" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H47" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (12 ounce) bag broccoli florets\n\n\n2 tablespoons olive oil\n\n\n½ small onion, minced\n\n\n2 large cloves garlic, minced\n\n\n¾ teaspoon sea salt\n\n\n¼ teaspoon ground black pepper\n\n\n1  lemon, juiced"}]</t>
-        </is>
-      </c>
-      <c r="I47" s="1" t="inlineStr">
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (12 ounce) bag broccoli florets\n\n\n2 tablespoons olive oil\n\n\n½ small onion, minced\n\n\n2 large cloves garlic, minced\n\n\n¾ teaspoon sea salt\n\n\n¼ teaspoon ground black pepper\n\n\n1  lemon, juiced'}]</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place 1/2 of the broccoli florets in a food processor; pulse about 20 times until broccoli looks like grains of rice. Repeat with remaining broccoli florets."},{"recipe_directions":"Heat olive oil in a large skillet over medium-low heat. Add onion; cook and stir until softened, about 3 minutes. Stir in garlic; cook for 30 seconds. Stir in broccoli rice, salt, and pepper. Reduce heat to low and cook, covered, until broccoli has softened, about 5 minutes. Pour lemon juice on top."}]</t>
         </is>
       </c>
-      <c r="J47" s="1" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Broccoli"}]</t>
         </is>
       </c>
-      <c r="K47" s="1" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"104\nCalories\n\n\n7g \nFat\n\n\n10g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>1699656497-47</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/sWqrbbBjx2r4H0t9ARdi2k9W0Jc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2805594-da34dcb299e34892a4cbdd8b5d3db6c7.jpg"
@@ -3141,59 +3302,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E48" s="1" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14297/asian-coleslaw/</t>
         </is>
       </c>
-      <c r="F48" s="1" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Asian Coleslaw</t>
         </is>
       </c>
-      <c r="G48" s="1" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n10"}]</t>
         </is>
       </c>
-      <c r="H48" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 tablespoons rice wine vinegar\n\n\n6 tablespoons vegetable oil\n\n\n5 tablespoons creamy peanut butter\n\n\n3 tablespoons soy sauce\n\n\n3 tablespoons brown sugar\n\n\n2 tablespoons minced fresh ginger root\n\n\n1 ½ tablespoons minced garlic"},{"recipe_ingredients":"5 cups thinly sliced green cabbage\n\n\n2 cups thinly sliced red cabbage\n\n\n2 cups shredded napa cabbage\n\n\n2  red bell peppers, thinly sliced\n\n\n2  carrots, julienned\n\n\n6  green onions, chopped\n\n\n½ cup chopped fresh cilantro"}]</t>
-        </is>
-      </c>
-      <c r="I48" s="1" t="inlineStr">
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 tablespoons rice wine vinegar\n\n\n6 tablespoons vegetable oil\n\n\n5 tablespoons creamy peanut butter\n\n\n3 tablespoons soy sauce\n\n\n3 tablespoons brown sugar\n\n\n2 tablespoons minced fresh ginger root\n\n\n1 ½ tablespoons minced garlic'}, {'recipe_ingredients': '5 cups thinly sliced green cabbage\n\n\n2 cups thinly sliced red cabbage\n\n\n2 cups shredded napa cabbage\n\n\n2  red bell peppers, thinly sliced\n\n\n2  carrots, julienned\n\n\n6  green onions, chopped\n\n\n½ cup chopped fresh cilantro'}]</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Prepare the peanut dressing: Whisk together rice vinegar, oil, peanut butter, soy sauce, brown sugar, ginger, and garlic in a medium bowl. Set aside."},{"recipe_directions":"Make the cabbage salad: Mix green cabbage, red cabbage, napa cabbage, red bell peppers, carrots, green onions, and cilantro in a large bowl."},{"recipe_directions":"Toss salad together with peanut dressing just before serving."}]</t>
         </is>
       </c>
-      <c r="J48" s="1" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Coleslaw Recipes"},{"recipe_tags":"Asian Coleslaw Recipes"}]</t>
         </is>
       </c>
-      <c r="K48" s="1" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"184\nCalories\n\n\n13g \nFat\n\n\n16g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="1" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>1699656503-48</t>
         </is>
       </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D49" s="1" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/p3Tk1BimtV0HELxsuXmktg1795c=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/49552_Quinoaandblackbeans_ddmfs_4x3_2745-46315412dc4f42fab1296ebee4765507.jpg"
@@ -3207,59 +3364,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E49" s="1" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/49552/quinoa-and-black-beans/</t>
         </is>
       </c>
-      <c r="F49" s="1" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Quinoa and Black Beans</t>
         </is>
       </c>
-      <c r="G49" s="1" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n10"}]</t>
         </is>
       </c>
-      <c r="H49" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 teaspoon vegetable oil\n\n\n1  onion, chopped\n\n\n3 cloves garlic, chopped\n\n\n¾ cup quinoa\n\n\n1 ½ cups vegetable broth\n\n\n1 teaspoon ground cumin\n\n\n¼ teaspoon cayenne pepper\n\n\n  salt and ground black pepper to taste\n\n\n1 cup frozen corn kernels\n\n\n2 (15 ounce) cans black beans, rinsed and drained\n\n\n½ cup chopped fresh cilantro"}]</t>
-        </is>
-      </c>
-      <c r="I49" s="1" t="inlineStr">
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 teaspoon vegetable oil\n\n\n1  onion, chopped\n\n\n3 cloves garlic, chopped\n\n\n¾ cup quinoa\n\n\n1 ½ cups vegetable broth\n\n\n1 teaspoon ground cumin\n\n\n¼ teaspoon cayenne pepper\n\n\n  salt and ground black pepper to taste\n\n\n1 cup frozen corn kernels\n\n\n2 (15 ounce) cans black beans, rinsed and drained\n\n\n½ cup chopped fresh cilantro'}]</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Heat oil in a large saucepan over medium heat. Add onion and garlic; cook and stir until lightly browned, about 10 minutes."},{"recipe_directions":"Mix quinoa into onion mixture and cover with vegetable broth; season with cumin, cayenne pepper, salt, and pepper."},{"recipe_directions":"Bring to a boil; cover, reduce heat, and simmer until quinoa is tender and broth is absorbed, about 20 minutes."},{"recipe_directions":"Stir in frozen corn and continue to simmer until heated through, about 5 minutes. Mix in black beans and cilantro."}]</t>
         </is>
       </c>
-      <c r="J49" s="1" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Grain Side Dish Recipes"}]</t>
         </is>
       </c>
-      <c r="K49" s="1" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"153\nCalories\n\n\n2g \nFat\n\n\n28g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>1699656508-49</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C50" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D50" s="1" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/fY6YWjG-xnnU9HALBGigj4Dr2ok=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/5950250-air-fryer-roasted-broccoli-and-cauliflower-Buckwheat-Queen-4x3-1-e781d6ca72724539a0730761342a0811.jpg"
@@ -3273,59 +3426,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E50" s="1" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/267105/air-fryer-roasted-broccoli-and-cauliflower/</t>
         </is>
       </c>
-      <c r="F50" s="1" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Air Fryer Roasted Broccoli and Cauliflower</t>
         </is>
       </c>
-      <c r="G50" s="1" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H50" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups broccoli florets\n\n\n3 cups cauliflower florets\n\n\n2 tablespoons olive oil\n\n\n½ teaspoon garlic powder\n\n\n¼ teaspoon sea salt\n\n\n¼ teaspoon paprika\n\n\n⅛ teaspoon ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I50" s="1" t="inlineStr">
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups broccoli florets\n\n\n3 cups cauliflower florets\n\n\n2 tablespoons olive oil\n\n\n½ teaspoon garlic powder\n\n\n¼ teaspoon sea salt\n\n\n¼ teaspoon paprika\n\n\n⅛ teaspoon ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an air fryer to 400 degrees F (200 degrees C)."},{"recipe_directions":"Place broccoli florets in a large, microwave-safe bowl. Cook in the microwave at full power for 3 minutes; drain any accumulated liquid."},{"recipe_directions":"Add cauliflower, olive oil, garlic powder, sea salt, paprika, and black pepper to the bowl with broccoli; mix well to combine. Pour mixture into the air fryer basket."},{"recipe_directions":"Cook in the preheated air fryer for 12 minutes, tossing vegetables halfway through cooking time for even browning."}]</t>
         </is>
       </c>
-      <c r="J50" s="1" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegan"},{"recipe_tags":"Side Dishes"}]</t>
         </is>
       </c>
-      <c r="K50" s="1" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"68\nCalories\n\n\n5g \nFat\n\n\n6g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>1699656513-50</t>
         </is>
       </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D51" s="1" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/xGVwqgtmlgfxlmzultkczIrRfVE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/271043-816090b5d89c48f9ac83b4c14d3299ec.jpg"
@@ -3338,59 +3487,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E51" s="1" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/57899/grilled-garlic-artichokes/</t>
         </is>
       </c>
-      <c r="F51" s="1" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Grilled Garlic Artichokes</t>
         </is>
       </c>
-      <c r="G51" s="1" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H51" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  lemon, quartered\n\n\n2  large artichokes\n\n\n¾ cup olive oil\n\n\n4 cloves garlic, chopped\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I51" s="1" t="inlineStr">
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  lemon, quartered\n\n\n2  large artichokes\n\n\n¾ cup olive oil\n\n\n4 cloves garlic, chopped\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"This grilled artichoke recipe is tender, flavorful, and the perfect addition to any summertime table."},{"recipe_directions":"You'll find a detailed ingredient list and step-by-step instructions in the recipe below, but let's go over the basics:"},{"recipe_directions":"These are the simple ingredients you’ll need for this homemade grilled artichokes recipe:"},{"recipe_directions":"Here’s a brief overview of what you can expect when you make grilled artichokes at home:"},{"recipe_directions":"Grilled artichokes are the perfect addition to any summer grilling menu. Explore these mouthwatering recipe collections:"},{"recipe_directions":"“So savory,” according to Jann Geyer. “This is our new method of enjoying artichokes. It is reasonably easy and actually takes less time.”"},{"recipe_directions":"“I did everything as stated, but I added some wood chips to my grill,” says Pjwat. “The smoky flavor was so yummy. Didn’t even need to dip before eating!”"},{"recipe_directions":"“The flavor profile is AMAZING,” raves Ananda Syapin. “I strongly recommend getting the sauce down into the leaves before grilling.”"},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Fill a large bowl with cold water. Squeeze juice from one lemon wedge into water. Trim tops and stems from artichokes, cut in half from top to bottom and scoop out the choke; place halves into the bowl of lemon water to prevent them from turning brown."},{"recipe_directions":"Bring a large pot of water to a boil. Add artichokes to boiling water, and cook until tender, about 15 minutes. Drain."},{"recipe_directions":"Meanwhile, preheat an outdoor grill for medium-high heat."},{"recipe_directions":"To make the basting and dipping sauce: Squeeze remaining lemon wedges into a medium bowl; stir in olive oil and garlic, and season with salt and pepper."},{"recipe_directions":"Brush artichokes with a coating of lemon-garlic dipping sauce; place on the preheated grill and cook, basting with sauce and turning frequently, until the tips are a little charred, 5 to 10 minutes. Serve immediately with remaining lemon-garlic sauce."}]</t>
         </is>
       </c>
-      <c r="J51" s="1" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"BBQ &amp; Grilling"},{"recipe_tags":"Vegetables"}]</t>
         </is>
       </c>
-      <c r="K51" s="1" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"402\nCalories\n\n\n41g \nFat\n\n\n10g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="1" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>1699656519-51</t>
         </is>
       </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C52" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D52" s="1" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/eirDHylibB0jpLp6U4Ed7FTlTmQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1943x0:1945x2):format(webp)/8521318-d12d09a304ec485db73d8a00086f378c.jpg"
@@ -3403,59 +3548,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E52" s="1" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/281498/grilled-cauliflower-steaks/</t>
         </is>
       </c>
-      <c r="F52" s="1" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>Grilled Cauliflower Steaks</t>
         </is>
       </c>
-      <c r="G52" s="1" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H52" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup olive oil\n\n\n1  lemon, juiced\n\n\n2 cloves garlic, minced\n\n\n1 teaspoon salt\n\n\n1 teaspoon smoked paprika\n\n\n1 teaspoon brown sugar\n\n\n½ teaspoon chili powder\n\n\n1 pinch ground black pepper\n\n\n2 large heads cauliflower\n\n\n2 tablespoons minced cilantro (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I52" s="1" t="inlineStr">
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup olive oil\n\n\n1  lemon, juiced\n\n\n2 cloves garlic, minced\n\n\n1 teaspoon salt\n\n\n1 teaspoon smoked paprika\n\n\n1 teaspoon brown sugar\n\n\n½ teaspoon chili powder\n\n\n1 pinch ground black pepper\n\n\n2 large heads cauliflower\n\n\n2 tablespoons minced cilantro (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an outdoor grill to medium-high heat and lightly oil the grate."},{"recipe_directions":"Whisk oil, lemon juice, garlic, salt, smoked paprika, brown sugar, chili powder, and black pepper together in a bowl; set aside."},{"recipe_directions":"Remove the tough bottom leaves from each cauliflower, taking care not to remove the stem. Place the cauliflower heads onto a cutting board with the stem side facing upwards; cut vertically on both sides of the stem to remove the loose florets. Cut each cauliflower vertically through the stem into 2 even \"steaks\", 1 to 1 1/2 inches thick; remove any remaining small leaves from each steak. Place cauliflower steaks on a baking sheet."},{"recipe_directions":"Brush one side of each steak with some of the oil mixture. Place steaks on the preheated grill, oiled-side down; grill for 5 minutes. Brush more oil mixture on top of steaks and gently flip over; grill until golden brown and slightly charred, 5 to 7 minutes more. Drizzle with any remaining oil and remove to a plate. Sprinkle with cilantro."}]</t>
         </is>
       </c>
-      <c r="J52" s="1" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"BBQ &amp; Grilling"},{"recipe_tags":"Vegetables"}]</t>
         </is>
       </c>
-      <c r="K52" s="1" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"240\nCalories\n\n\n14g \nFat\n\n\n28g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="1" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>1699656523-52</t>
         </is>
       </c>
-      <c r="B53" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C53" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D53" s="1" t="inlineStr">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Oc_JcAebh3eSVA4JleZ1gTDfTOA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/23724-PanFriedGreenBeans-MFS-4x3-0216-ce2c60114fdc4ba98a19c31bba213e67.jpg"
@@ -3469,59 +3610,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E53" s="1" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/23724/pan-fried-green-beans/</t>
         </is>
       </c>
-      <c r="F53" s="1" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>Pan Fried Green Beans</t>
         </is>
       </c>
-      <c r="G53" s="1" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n5"}]</t>
         </is>
       </c>
-      <c r="H53" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ pounds fresh green beans, trimmed and snapped\n\n\n¼ teaspoon garlic powder, or to taste\n\n\n¼ teaspoon onion powder, or to taste\n\n\n  salt and pepper to taste\n\n\n3 tablespoons olive oil"}]</t>
-        </is>
-      </c>
-      <c r="I53" s="1" t="inlineStr">
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ pounds fresh green beans, trimmed and snapped\n\n\n¼ teaspoon garlic powder, or to taste\n\n\n¼ teaspoon onion powder, or to taste\n\n\n  salt and pepper to taste\n\n\n3 tablespoons olive oil'}]</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather ingredients."},{"recipe_directions":"Combine green beans, garlic powder, onion powder, salt, and pepper in a stainless steel pot over medium-high heat. Cook, covered, until beans begin to sweat. Remove the lid and stir occasionally until beans are tender."},{"recipe_directions":"When beans and spices begin to char on the bottom of the pan, stir in olive oil and turn off heat. Cover and let stand a few minutes."},{"recipe_directions":"Scrape the bottom of the pan to incorporate charred spices. Beans should have a dark, caramel color, but not black."}]</t>
         </is>
       </c>
-      <c r="J53" s="1" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Green Beans"}]</t>
         </is>
       </c>
-      <c r="K53" s="1" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"114\nCalories\n\n\n8g \nFat\n\n\n10g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="1" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>1699656529-53</t>
         </is>
       </c>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D54" s="1" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/1ZI9jckDbrULhmErBDit7lYM12I=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/82078-escarole-and-beans-ddmfs-1x1-0974-d5caa887c89547778d0de986cad714c6.jpg"
@@ -3535,59 +3672,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E54" s="1" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/82078/escarole-and-beans/</t>
         </is>
       </c>
-      <c r="F54" s="1" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>Escarole and Beans</t>
         </is>
       </c>
-      <c r="G54" s="1" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H54" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 tablespoons olive oil, divided\n\n\n2 large heads escarole\n\n\n  salt and pepper to taste\n\n\n¼ teaspoon crushed red pepper flakes\n\n\n1 clove garlic, minced\n\n\n2 (16 ounce) cans cannellini beans, undrained\n\n\n3 sprigs fresh parsley, chopped"}]</t>
-        </is>
-      </c>
-      <c r="I54" s="1" t="inlineStr">
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 tablespoons olive oil, divided\n\n\n2 large heads escarole\n\n\n  salt and pepper to taste\n\n\n¼ teaspoon crushed red pepper flakes\n\n\n1 clove garlic, minced\n\n\n2 (16 ounce) cans cannellini beans, undrained\n\n\n3 sprigs fresh parsley, chopped'}]</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Heat 2 tablespoons olive oil in a large skillet over medium heat. Toss in escarole, turning to coat with oil. Season with salt, pepper, and crushed red pepper flakes. Cook, stirring occasionally, about 10 minutes, or until tender."},{"recipe_directions":"Heat remaining 1 tablespoon olive oil in a separate skillet over medium heat; stir in garlic. Pour in beans with juice and simmer until creamy, about 10 minutes."},{"recipe_directions":"Stir in escarole and parsley; simmer 10 minutes more."}]</t>
         </is>
       </c>
-      <c r="J54" s="1" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Greens"}]</t>
         </is>
       </c>
-      <c r="K54" s="1" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"322\nCalories\n\n\n12g \nFat\n\n\n43g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="1" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>1699656533-54</t>
         </is>
       </c>
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C55" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D55" s="1" t="inlineStr">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/6QbnfDHLEn6UMRL-kOJiI-Fhayo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/277321-air-fryer-fingerling-potatoes-ddmfs-3x4-6995a8e393874addb660a393e6f805b3.jpg"
@@ -3601,59 +3734,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E55" s="1" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/277321/air-fryer-fingerling-potatoes/</t>
         </is>
       </c>
-      <c r="F55" s="1" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>Air Fryer Fingerling Potatoes</t>
         </is>
       </c>
-      <c r="G55" s="1" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H55" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound fingerling potatoes, halved lengthwise\n\n\n1 tablespoon olive oil\n\n\n½ teaspoon ground paprika\n\n\n½ teaspoon parsley flakes\n\n\n½ teaspoon garlic powder\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I55" s="1" t="inlineStr">
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound fingerling potatoes, halved lengthwise\n\n\n1 tablespoon olive oil\n\n\n½ teaspoon ground paprika\n\n\n½ teaspoon parsley flakes\n\n\n½ teaspoon garlic powder\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an air fryer to 400 degrees F (200 degrees C)."},{"recipe_directions":"Place potato halves in a large bowl. Add olive oil, paprika, parsley, garlic powder, salt, and pepper; stir until evenly coated. Place potatoes in the air fryer basket."},{"recipe_directions":"Cook in the preheated air fryer for 10 minutes; stir and cook until desired crispness is reached, about 5 more minutes."}]</t>
         </is>
       </c>
-      <c r="J55" s="1" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"}]</t>
         </is>
       </c>
-      <c r="K55" s="1" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"120\nCalories\n\n\n4g \nFat\n\n\n20g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="1" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>1699656539-55</t>
         </is>
       </c>
-      <c r="B56" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C56" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D56" s="1" t="inlineStr">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Ezfdz4RJfYoRuMRH8WVEYTcf6zc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/5521411-roasted-garlic-lemon-broccoli-jewels-1x1-1-22ed72a9a1b543159fa4fda5aad56995.jpg"
@@ -3667,59 +3796,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E56" s="1" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/144346/roasted-garlic-lemon-broccoli/</t>
         </is>
       </c>
-      <c r="F56" s="1" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>Roasted Garlic Lemon Broccoli</t>
         </is>
       </c>
-      <c r="G56" s="1" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H56" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 heads broccoli, separated into florets\n\n\n2 teaspoons extra-virgin olive oil\n\n\n1 teaspoon sea salt\n\n\n½ teaspoon ground black pepper\n\n\n1 clove garlic, minced\n\n\n½ teaspoon lemon juice"}]</t>
-        </is>
-      </c>
-      <c r="I56" s="1" t="inlineStr">
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 heads broccoli, separated into florets\n\n\n2 teaspoons extra-virgin olive oil\n\n\n1 teaspoon sea salt\n\n\n½ teaspoon ground black pepper\n\n\n1 clove garlic, minced\n\n\n½ teaspoon lemon juice'}]</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C)."},{"recipe_directions":"Toss broccoli florets with extra virgin olive oil, sea salt, pepper, and garlic in a large bowl. Spread the broccoli out in an even layer on a baking sheet."},{"recipe_directions":"Bake in the preheated oven until florets are tender enough to pierce the stems with a fork, 15 to 20 minutes. Remove and transfer to a serving platter."},{"recipe_directions":"Squeeze lemon juice liberally over broccoli before serving for a refreshing, tangy finish."}]</t>
         </is>
       </c>
-      <c r="J56" s="1" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Broccoli"}]</t>
         </is>
       </c>
-      <c r="K56" s="1" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"49\nCalories\n\n\n2g \nFat\n\n\n7g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="1" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>1699656544-56</t>
         </is>
       </c>
-      <c r="B57" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C57" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D57" s="1" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/JUs0vBSZeuMaNdE9LRqqqA89W4k=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/5768211-air-fryer-roasted-okra-Buckwheat-Queen-4x3-1-4c4283c6fc7047f796c2c89b410babf2.jpg"
@@ -3733,59 +3858,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E57" s="1" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/267772/air-fryer-roasted-okra/</t>
         </is>
       </c>
-      <c r="F57" s="1" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>Air Fryer Roasted Okra</t>
         </is>
       </c>
-      <c r="G57" s="1" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n1"}]</t>
         </is>
       </c>
-      <c r="H57" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ pound okra, ends trimmed and pods sliced\n\n\n1 teaspoon olive oil\n\n\n¼ teaspoon salt\n\n\n⅛ teaspoon ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I57" s="1" t="inlineStr">
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ pound okra, ends trimmed and pods sliced\n\n\n1 teaspoon olive oil\n\n\n¼ teaspoon salt\n\n\n⅛ teaspoon ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an air fryer to 350 degrees F (175 degrees C)."},{"recipe_directions":"Place okra, olive oil, salt, and pepper in a large bowl; stir gently to coat. Arrange okra in a single layer in the air fryer basket."},{"recipe_directions":"Cook in the preheated air fryer for 10 minutes, tossing the basket halfway."},{"recipe_directions":"Toss the basket once more; continue to cook until crispy, about 2 minutes more."}]</t>
         </is>
       </c>
-      <c r="J57" s="1" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"}]</t>
         </is>
       </c>
-      <c r="K57" s="1" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"113\nCalories\n\n\n5g \nFat\n\n\n16g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="1" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>1699656553-57</t>
         </is>
       </c>
-      <c r="B58" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C58" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D58" s="1" t="inlineStr">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/1Tm-ucprv0DIbP1ESwMSmrunwOQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/282385-microwave-spaghetti-squash-ddmfs-4x3-371b6188056749b587f122131e7a8bca.jpg"
@@ -3799,59 +3920,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E58" s="1" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/282385/microwave-spaghetti-squash/</t>
         </is>
       </c>
-      <c r="F58" s="1" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>Microwave Spaghetti Squash</t>
         </is>
       </c>
-      <c r="G58" s="1" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H58" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (3 pound) spaghetti squash\n\n\n1 cup water, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="I58" s="1" t="inlineStr">
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (3 pound) spaghetti squash\n\n\n1 cup water, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Carefully cut stem end off spaghetti squash. Poke a few small slits in squash in a dotted line where you plan to slice squash."},{"recipe_directions":"Carefully cut between the slits until squash is cut in half. Scoop out seeds and pulp."},{"recipe_directions":"Place squash in a 9x13-inch microwave-safe dish, cut-side down. Pour water into the dish so it is at least 1/2 inch deep."},{"recipe_directions":"Microwave on High until skin is soft and can be pierced with a fork, 12 to 15 minutes. If the dish is too big to rotate, turn off the turntable and rotate the dish halfway through."},{"recipe_directions":"Cooking times will vary according to squash size and microwave wattage."},{"recipe_directions":"To make squash easier to cut, poke holes in squash and microwave for 5 minutes before cutting. Adjust remaining cook time accordingly."},{"recipe_directions":"You can reserve seeds and roast them as you would pumpkin seeds."}]</t>
         </is>
       </c>
-      <c r="J58" s="1" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Vegetables"},{"recipe_tags":"Squash"},{"recipe_tags":"Winter Squash"},{"recipe_tags":"Spaghetti Squash"}]</t>
         </is>
       </c>
-      <c r="K58" s="1" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"106\nCalories\n\n\n2g \nFat\n\n\n24g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="1" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>1699656560-58</t>
         </is>
       </c>
-      <c r="B59" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C59" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D59" s="1" t="inlineStr">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Yd7cYw1CCwfm9SfpAnpjBPO6tKc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1303x0:1305x2):format(webp)/9314433-e4a27914789743769d509cdf30f6df94.jpg"
@@ -3864,59 +3981,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E59" s="1" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/265979/air-fryer-baked-potatoes/</t>
         </is>
       </c>
-      <c r="F59" s="1" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>Air Fryer Baked Potatoes</t>
         </is>
       </c>
-      <c r="G59" s="1" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 5 mins\n\n\nServings:\n2 \n\n\nYield:\n2 baked potatoes"}]</t>
         </is>
       </c>
-      <c r="H59" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 large russet potatoes, scrubbed\n\n\n1 tablespoon peanut oil\n\n\n½ teaspoon coarse sea salt"}]</t>
-        </is>
-      </c>
-      <c r="I59" s="1" t="inlineStr">
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 large russet potatoes, scrubbed\n\n\n1 tablespoon peanut oil\n\n\n½ teaspoon coarse sea salt'}]</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an air fryer to 400 degrees F (200 degrees C)."},{"recipe_directions":"Brush potatoes with peanut oil, sprinkle with salt, and place them in the air fryer basket."},{"recipe_directions":"Cook potatoes until very tender when pierced with a fork, about 1 hour."},{"recipe_directions":"The potatoes do not need to be pricked with a fork before cooking or turned while cooking."}]</t>
         </is>
       </c>
-      <c r="J59" s="1" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Cookware and Equipment"},{"recipe_tags":"Air Fryer"},{"recipe_tags":"Side Dishes"}]</t>
         </is>
       </c>
-      <c r="K59" s="1" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"344\nCalories\n\n\n7g \nFat\n\n\n65g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="1" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>1699656565-59</t>
         </is>
       </c>
-      <c r="B60" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C60" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D60" s="1" t="inlineStr">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/8WfXdIiyzAfflARB7jfCCuLe7CQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(599x0:601x2):format(webp)/5421181-crisp-pickled-green-beans-Chad-Ellis-4x3-1-67c454e71d7e4b51a967e5e05245c33d.jpg"
@@ -3930,59 +4043,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E60" s="1" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/62594/crisp-pickled-green-beans/</t>
         </is>
       </c>
-      <c r="F60" s="1" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>Crisp Pickled Green Beans</t>
         </is>
       </c>
-      <c r="G60" s="1" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n14 days 8 hrs\n\n\nTotal Time:\n14 days 8 hrs 35 mins\n\n\nServings:\n48 \n\n\nYield:\n6 (1/2-pint) jars"}]</t>
         </is>
       </c>
-      <c r="H60" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 ½ cups distilled white vinegar\n\n\n2 cups water\n\n\n¼ cup salt\n\n\n1 clove garlic, peeled\n\n\n2 ½ pounds fresh green beans\n\n\n6 large sprigs dill\n\n\n¾ teaspoon red pepper flakes (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I60" s="1" t="inlineStr">
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 ½ cups distilled white vinegar\n\n\n2 cups water\n\n\n¼ cup salt\n\n\n1 clove garlic, peeled\n\n\n2 ½ pounds fresh green beans\n\n\n6 large sprigs dill\n\n\n¾ teaspoon red pepper flakes (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Inspect six 1/2-pint jars for cracks and rings for rust, discarding any defective ones. Immerse in simmering water. Wash new, unused lids and rings in warm soapy water."},{"recipe_directions":"While the jars are bring sterilized, stir together vinegar, water, and salt in a large saucepan. Add garlic and bring to a rolling boil over high heat."},{"recipe_directions":"Trim green beans to 1/4-inch shorter than the jars."},{"recipe_directions":"Remove jars from simmering water. Place 1 sprig of dill and 1/8 teaspoon red pepper flakes in each jar. Pack in green beans standing on end."},{"recipe_directions":"Ladle boiling brine (leave out garlic) into the jars, filling within 1/4-inch of the tops. Seal jars with lids and rings."},{"recipe_directions":"Place a rack in the bottom of a large stockpot and fill halfway with water. Bring to a boil and lower jars 2 inches apart into the boiling water using a holder. Pour in more boiling water to cover jars by at least 1 inch. Bring to a simmer (do not boil), cover, and process for 10 minutes."},{"recipe_directions":"Remove jars from the stockpot and cool to room temperature, 8 to 12 hours. Test jars for a good seal by pressing on the center of the lid — it should not move."},{"recipe_directions":"Let green beans ferment for 2 to 3 weeks in a cool, dark space before eating."},{"recipe_directions":"If any jars do not seal properly, refrigerate and eat those beans within a week."}]</t>
         </is>
       </c>
-      <c r="J60" s="1" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Sauces and Condiments"},{"recipe_tags":"Canning and Preserving Recipes"},{"recipe_tags":"Pickles"},{"recipe_tags":"Pickles"}]</t>
         </is>
       </c>
-      <c r="K60" s="1" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"8\nCalories\n\n\n2g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="1" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>1699656570-60</t>
         </is>
       </c>
-      <c r="B61" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C61" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D61" s="1" t="inlineStr">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/HM0A9zogY1xLABRoN8j8xiVrj_o=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/226330-e0c7432dde2345ba9891fe9c2f306f36.jpg"
@@ -3995,59 +4104,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E61" s="1" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/13933/black-bean-and-corn-salad-ii/</t>
         </is>
       </c>
-      <c r="F61" s="1" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>Black Bean and Corn Salad</t>
         </is>
       </c>
-      <c r="G61" s="1" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H61" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup olive oil\n\n\n⅓ cup fresh lime juice\n\n\n1 clove garlic, minced\n\n\n1 teaspoon salt\n\n\n⅛ teaspoon ground cayenne pepper\n\n\n2 (15 ounce) cans black beans, rinsed and drained\n\n\n1 ½ cups frozen corn kernels\n\n\n1  avocado - peeled, pitted and diced\n\n\n1  red bell pepper, chopped\n\n\n2  tomatoes, chopped\n\n\n6  green onions, thinly sliced\n\n\n½ cup chopped fresh cilantro"}]</t>
-        </is>
-      </c>
-      <c r="I61" s="1" t="inlineStr">
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup olive oil\n\n\n⅓ cup fresh lime juice\n\n\n1 clove garlic, minced\n\n\n1 teaspoon salt\n\n\n⅛ teaspoon ground cayenne pepper\n\n\n2 (15 ounce) cans black beans, rinsed and drained\n\n\n1 ½ cups frozen corn kernels\n\n\n1  avocado - peeled, pitted and diced\n\n\n1  red bell pepper, chopped\n\n\n2  tomatoes, chopped\n\n\n6  green onions, thinly sliced\n\n\n½ cup chopped fresh cilantro'}]</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place olive oil, lime juice, garlic, salt, and cayenne pepper in a small jar. Close the lid tightly and shake the jar until the dressing is well combined."},{"recipe_directions":"Combine in a salad bowl beans, corn, avocado, bell pepper, tomatoes, green onions, and cilantro."},{"recipe_directions":"Shake dressing again, pour over salad, and toss to coat."}]</t>
         </is>
       </c>
-      <c r="J61" s="1" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Beans"},{"recipe_tags":"Black Bean Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K61" s="1" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"391\nCalories\n\n\n25g \nFat\n\n\n35g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="1" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>1699656578-61</t>
         </is>
       </c>
-      <c r="B62" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C62" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D62" s="1" t="inlineStr">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1663/everyday-cooking/vegan/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/hfJyXGZBi2NbSBjbXKVqbnFxUjE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/13637-three-bean-salad-DDMFS-4x3-411d1b4eab5b4d3c87ecaa92de784c67.jpg"
@@ -4061,42 +4166,43 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E62" s="1" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/13637/three-bean-salad/</t>
         </is>
       </c>
-      <c r="F62" s="1" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Three Bean Salad</t>
         </is>
       </c>
-      <c r="G62" s="1" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nAdditional Time:\n 12 hrs\n\n\nTotal Time:\n 12 hrs 15 mins\n\n\nServings:\n16"}]</t>
         </is>
       </c>
-      <c r="H62" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (15 ounce) can green beans\n\n\n1 pound wax beans\n\n\n1 (15 ounce) can kidney beans, drained and rinsed\n\n\n1  onion, sliced into thin rings\n\n\n¾ cup white sugar, or to taste\n\n\n⅔ cup distilled white vinegar\n\n\n⅓ cup vegetable oil\n\n\n½ teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n½ teaspoon celery seed"}]</t>
-        </is>
-      </c>
-      <c r="I62" s="1" t="inlineStr">
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (15 ounce) can green beans\n\n\n1 pound wax beans\n\n\n1 (15 ounce) can kidney beans, drained and rinsed\n\n\n1  onion, sliced into thin rings\n\n\n¾ cup white sugar, or to taste\n\n\n⅔ cup distilled white vinegar\n\n\n⅓ cup vegetable oil\n\n\n½ teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n½ teaspoon celery seed'}]</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Looking for a simple side that's sure to impress at your next picnic, potluck, or barbecue? We've got you covered with this three bean salad. The perfect make-ahead side dish, it's easy to make with convenient ingredients."},{"recipe_directions":"Here's what you'll need to make this easy three bean salad recipe:"},{"recipe_directions":"Beans\nThe three beans in this salad are green beans, wax beans, and kidney beans. Some reviewers suggest adding a can of chickpeas. It's easiest to use canned beans, but you can use freshly cooked beans if you like."},{"recipe_directions":"Onion\nSlice one white or yellow onion into thin rings."},{"recipe_directions":"Sugar\nThis three bean salad recipe calls for ¾ cup white sugar, but you can use less if you'd like it a little less sweet."},{"recipe_directions":"Oil and Vinegar\nDistilled white vinegar and vegetable oil come together to make a simple salad dressing."},{"recipe_directions":"Seasonings\nThis recipe is simply seasoned with salt, pepper, and celery seed."},{"recipe_directions":"It truly couldn't be simpler to throw this three bean salad together. You'll find the full, step-by-step recipe below — but here's a brief overview of what you can expect:"},{"recipe_directions":"Mix all the ingredients in a large bowl. Cover and refrigerate overnight to allow the flavors to meld."},{"recipe_directions":"This three bean salad recipe serves 16, so it's the perfect potluck recipe to feed a crowd. It's delicious served alongside crowd-pleasing entrees such as pulled pork or burgers. For more delicious inspiration, explore our entire collection of Potluck Recipes."},{"recipe_directions":"Store three bean salad in an airtight container in the refrigerator for three to five days. There's no need to reheat, as this dish is served cold."},{"recipe_directions":"\"I needed a quick and easy salad to take to a potluck and decided to make this salad,\" says Debra Knight. \"Fast preparation the night before and a delicious salad for the table.\""},{"recipe_directions":"\"Just what I was looking for — simple and foolproof,\" raves Emmy. \"I substituted bell peppers for the onion, since I'm not a fan of onion, and the flavor and colors were a good complement.\""},{"recipe_directions":"\"The beauty of this salad is that nearly all ingredients can be kept on the shelf until you need them, so you can whip this up whenever you need it,\" according to LIZZYG2."},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Mix together green beans, wax beans, kidney beans, onion, sugar, vinegar, vegetable oil, salt, pepper, and celery seed. Chill in refrigerator for at least 12 hours."},{"recipe_directions":"Enjoy!"}]</t>
         </is>
       </c>
-      <c r="J62" s="1" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Beans"},{"recipe_tags":"Three Bean Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K62" s="1" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"112\nCalories\n\n\n5g \nFat\n\n\n16g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>